--- a/3.Understand/EE6427-热门考点分析.xlsx
+++ b/3.Understand/EE6427-热门考点分析.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
   <si>
     <t>目录</t>
   </si>
@@ -70,34 +70,400 @@
     <t>2.1.术语和概念</t>
   </si>
   <si>
+    <t>2.1.1.什么是压缩/编码？</t>
+  </si>
+  <si>
+    <t>2.1.2.压缩比</t>
+  </si>
+  <si>
+    <t>2.1.3.信息论基础</t>
+  </si>
+  <si>
     <t>2.2.熵编码</t>
   </si>
   <si>
+    <t>2.2.1.霍夫曼编码</t>
+  </si>
+  <si>
     <t>2.3.图像和视频压缩</t>
   </si>
   <si>
-    <t>2.4.基础基于变换的编码/压缩</t>
+    <t>2.3.1.为什么要压缩图像/视频?</t>
+  </si>
+  <si>
+    <t>2.3.2.为什么可以压缩?</t>
+  </si>
+  <si>
+    <t>2.3.3空间冗余</t>
+  </si>
+  <si>
+    <t>2.3.4时间冗余</t>
+  </si>
+  <si>
+    <t>2.3.5编码冗余</t>
+  </si>
+  <si>
+    <t>2.3.6心理视觉冗余</t>
+  </si>
+  <si>
+    <t>2.3.7有损和无损压缩</t>
+  </si>
+  <si>
+    <t>2.3.8扭曲措施/量度</t>
+  </si>
+  <si>
+    <t>2.4.基于变换的编码/压缩</t>
+  </si>
+  <si>
+    <t>2.4.1变换编码</t>
+  </si>
+  <si>
+    <t>2.4.2基于变换的图像压缩</t>
+  </si>
+  <si>
+    <t>2.4.3变换</t>
+  </si>
+  <si>
+    <t>2.4.4量化</t>
+  </si>
+  <si>
+    <t>2.4.5标量量化</t>
+  </si>
+  <si>
+    <t>2.4.6编码</t>
   </si>
   <si>
     <t>2.5.离散余弦变换(DCT)</t>
   </si>
   <si>
+    <t>2.5.1离散余弦变换(DCT)</t>
+  </si>
+  <si>
+    <t>2.5.2为什么DCT ?</t>
+  </si>
+  <si>
+    <t>2.5.3变换与基函数</t>
+  </si>
+  <si>
+    <t>2.5.4传统DCT变换</t>
+  </si>
+  <si>
+    <t>2.5.5矩阵DCT变换</t>
+  </si>
+  <si>
     <t>2.6.JPEG标准</t>
   </si>
   <si>
+    <t>2.6.1观察</t>
+  </si>
+  <si>
+    <t>2.6.2JPEG</t>
+  </si>
+  <si>
+    <t>2.6.3基线JPEG的主要阶段</t>
+  </si>
+  <si>
+    <t>2.6.4 JPEG编码器</t>
+  </si>
+  <si>
+    <t>2.6.5 图像分割</t>
+  </si>
+  <si>
+    <t>2.6.6 图像准备</t>
+  </si>
+  <si>
+    <t>2.6.7前向DCT</t>
+  </si>
+  <si>
+    <t>2.6.7.1为什么是2D-DCT?</t>
+  </si>
+  <si>
+    <t>2.6.7.2JPEG DCT基函数</t>
+  </si>
+  <si>
+    <t>2.6.7.3DCT中基的变化</t>
+  </si>
+  <si>
+    <t>2.6.7.4DCT系数</t>
+  </si>
+  <si>
+    <t>2.6.8量化</t>
+  </si>
+  <si>
+    <t>2.6.8.1量化表</t>
+  </si>
+  <si>
+    <t>2.6.8.2量化</t>
+  </si>
+  <si>
+    <t>2.6.8.3量化效应</t>
+  </si>
+  <si>
+    <t>2.6.9熵编码</t>
+  </si>
+  <si>
+    <t>2.6.9.1锯齿形扫描</t>
+  </si>
+  <si>
+    <t>2.6.9.2直流系数的差分编码</t>
+  </si>
+  <si>
+    <t>2.6.9.3游程编码RLE</t>
+  </si>
+  <si>
+    <t>2.6.9.4霍夫曼编码</t>
+  </si>
+  <si>
+    <t>2.6.10图像质量vs DCT组件</t>
+  </si>
+  <si>
+    <t>2.6.11框架构建</t>
+  </si>
+  <si>
+    <t>2.6.11.1JPEG比特流格式</t>
+  </si>
+  <si>
+    <t>2.6.12 JPEG解码器</t>
+  </si>
+  <si>
     <t>3.视频压缩和标准</t>
   </si>
   <si>
     <t>3.1.视频编码与标准</t>
   </si>
   <si>
+    <t>3.1.1视频结构</t>
+  </si>
+  <si>
+    <t>3.1.2宏模块</t>
+  </si>
+  <si>
+    <t>3.1.3视频压缩的主要思想</t>
+  </si>
+  <si>
+    <t>3.1.3.1运动估计与补偿</t>
+  </si>
+  <si>
+    <t>3.1.4帧内和帧间压缩</t>
+  </si>
+  <si>
+    <t>3.1.5亮度&amp;色度</t>
+  </si>
+  <si>
+    <t>3.1.6色度二次抽样</t>
+  </si>
+  <si>
     <t>3.2.MPEG标准</t>
   </si>
   <si>
+    <t>3.2.1MPEG基础</t>
+  </si>
+  <si>
+    <t>3.2.1.1介绍</t>
+  </si>
+  <si>
+    <t>3.2.1.2MPEG视频结构</t>
+  </si>
+  <si>
+    <t>3.2.1.3图片组(GOPs)</t>
+  </si>
+  <si>
+    <t>3.2.1.4i帧，p帧，b帧</t>
+  </si>
+  <si>
+    <t>3.2.1.5MPEG-1显示和编码顺序</t>
+  </si>
+  <si>
+    <t>3.2.1.6图片组的GOP问题</t>
+  </si>
+  <si>
+    <t>3.2.2运动估计与补偿</t>
+  </si>
+  <si>
+    <t>3.2.2.1运动估计</t>
+  </si>
+  <si>
+    <t>3.2.2.2运动补偿</t>
+  </si>
+  <si>
+    <t>3.2.2.2.1平均绝对差(MAD)</t>
+  </si>
+  <si>
+    <t>3.2.2.3运动估计方法</t>
+  </si>
+  <si>
+    <t>3.2.2.3.1完整的搜索</t>
+  </si>
+  <si>
+    <t>3.2.2.3.2三步搜索</t>
+  </si>
+  <si>
+    <t>3.2.2.3.3对数搜索</t>
+  </si>
+  <si>
+    <t>3.2.2.3.4分层搜索</t>
+  </si>
+  <si>
+    <t>3.2.3历史与里程碑</t>
+  </si>
+  <si>
+    <t>3.2.3.1视频编码标准化组织</t>
+  </si>
+  <si>
+    <t>3.2.3.2关键编码标准和里程碑</t>
+  </si>
+  <si>
+    <t>3.2.3.3MPEG概述</t>
+  </si>
+  <si>
+    <t>3.2.3.4H.26x总结</t>
+  </si>
+  <si>
+    <t>3.2.3.5其他视频编码标准</t>
+  </si>
+  <si>
+    <t>3.2.4MPEG-1</t>
+  </si>
+  <si>
+    <t>3.2.4.1.概述</t>
+  </si>
+  <si>
+    <t>3.2.4.2 I, P &amp; B帧编码</t>
+  </si>
+  <si>
+    <t>3.2.4.2.1 I帧编码流程图</t>
+  </si>
+  <si>
+    <t>3.2.4.2.2 p帧编码流程图</t>
+  </si>
+  <si>
+    <t>3.2.4.2.3 B帧编码流程图</t>
+  </si>
+  <si>
+    <t>3.2.4.2.4 帧大小</t>
+  </si>
+  <si>
+    <t>3.2.4.3.比特流</t>
+  </si>
+  <si>
+    <t>3.2.5MPEG-2</t>
+  </si>
+  <si>
+    <t>3.2.5.1.概述</t>
+  </si>
+  <si>
+    <t>3.2.5.2.可伸缩性</t>
+  </si>
+  <si>
+    <t>3.2.5.3.可扩展性的类型</t>
+  </si>
+  <si>
+    <t>3.2.5.3.1.信噪比可扩展</t>
+  </si>
+  <si>
+    <t>3.2.5.3.2.空间可扩展性</t>
+  </si>
+  <si>
+    <t>3.2.5.3.3.时间可伸缩性</t>
+  </si>
+  <si>
+    <t>3.2.5.3.4.混合可扩展性</t>
+  </si>
+  <si>
+    <t>3.2.5.3.5数据分区</t>
+  </si>
+  <si>
+    <t>3.2.6MPEG-4</t>
+  </si>
+  <si>
+    <t>3.2.6.1概述</t>
+  </si>
+  <si>
+    <t>3.2.6.2基于对象的视频编码vs基于帧的视频编码</t>
+  </si>
+  <si>
+    <t>3.2.6.3视频对象平面VOP编码</t>
+  </si>
+  <si>
+    <t>3.2.7MPEG-7</t>
+  </si>
+  <si>
     <t>3.3.H.26x标准</t>
   </si>
   <si>
+    <t>3.3.1 H.261</t>
+  </si>
+  <si>
+    <t>3.3.1.1概述</t>
+  </si>
+  <si>
+    <t>3.3.1.2 I帧编码</t>
+  </si>
+  <si>
+    <t>3.3.1.3 P帧编码</t>
+  </si>
+  <si>
+    <t>3.3.2 H.262</t>
+  </si>
+  <si>
+    <t>3.3.3 H.263 / H.263+</t>
+  </si>
+  <si>
+    <t>3.3.4 H.264</t>
+  </si>
+  <si>
+    <t>3.3.4.1 H264编码器</t>
+  </si>
+  <si>
+    <t>3.3.4.2运动补偿</t>
+  </si>
+  <si>
+    <t>3.3.4.3GOP中的其他选项</t>
+  </si>
+  <si>
+    <t>3.3.4.4 整数变换</t>
+  </si>
+  <si>
+    <t>3.3.4.5 内部编码</t>
+  </si>
+  <si>
+    <t>3.3.4.6 循环内去块滤波</t>
+  </si>
+  <si>
+    <t>3.3.4.7 上下文自适应二进制算术编码(CABAC)</t>
+  </si>
+  <si>
+    <t>3.3.4.8 比特流结构</t>
+  </si>
+  <si>
+    <t>3.3.4.9 可伸缩视频编码(SVC)</t>
+  </si>
+  <si>
+    <t>3.3.4.10 多视图视频编码(MVC)</t>
+  </si>
+  <si>
+    <t>3.3.5 H.265, H.266</t>
+  </si>
+  <si>
+    <t>3.3.5.1 H.265:介绍</t>
+  </si>
+  <si>
+    <t>3.3.5.2 H.265:对H.264的改进</t>
+  </si>
+  <si>
+    <t>3.3.5.3 H.265:Intra Coding</t>
+  </si>
+  <si>
+    <t>3.3.5.4 H.266:概述</t>
+  </si>
+  <si>
     <t>3.4.新的/新兴的编码和标准</t>
+  </si>
+  <si>
+    <t>3.4.1MPEG-I:沉浸式媒体</t>
+  </si>
+  <si>
+    <t>3.4.2沉浸式视频(MIV)</t>
   </si>
   <si>
     <t>4.人工智能模型和体系结构</t>
@@ -344,7 +710,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -354,6 +720,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,7 +1075,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -721,16 +1099,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -739,89 +1117,89 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -831,13 +1209,46 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1151,18 +1562,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection pane="bottomLeft" activeCell="A139" sqref="$A71:$XFD71 $A116:$XFD116 $A139:$XFD139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="44" customWidth="1"/>
-    <col min="2" max="2" width="11.6363636363636" customWidth="1"/>
+    <col min="1" max="1" width="44" style="9" customWidth="1"/>
+    <col min="2" max="2" width="11.6363636363636" style="9" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -1183,218 +1595,828 @@
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A9" s="5" t="s">
+    <row r="9" s="2" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A9" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A13" s="5" t="s">
+    <row r="13" s="2" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A13" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A20" s="4" t="s">
+    <row r="20" s="3" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A20" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="22" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="23" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="26" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A27" s="5" t="s">
+    <row r="27" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A27" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A28" s="5" t="s">
+    <row r="28" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A28" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A29" s="5" t="s">
+    <row r="29" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A29" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A30" s="5" t="s">
+    <row r="30" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A30" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A31" s="5" t="s">
+    <row r="31" s="2" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A31" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A32" s="5" t="s">
+    <row r="32" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A32" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A33" s="5" t="s">
+    <row r="33" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A33" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A34" s="5" t="s">
+    <row r="34" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A34" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A35" s="5" t="s">
+    <row r="35" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A35" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A36" s="5" t="s">
+    <row r="36" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A36" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A37" s="5" t="s">
+    <row r="37" s="2" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A37" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A38" s="5" t="s">
+    <row r="38" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A38" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A39" s="5" t="s">
+    <row r="39" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A39" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A40" s="5" t="s">
+    <row r="40" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A40" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A41" s="5" t="s">
+    <row r="41" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A41" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A42" s="4" t="s">
+    <row r="42" s="5" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A42" s="13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A43" s="5" t="s">
+    <row r="43" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A43" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A44" s="5" t="s">
+    <row r="44" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A44" s="12" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="45" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A45" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A46" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A47" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A48" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A49" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A50" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A51" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A52" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A53" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A54" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A55" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A56" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A57" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A58" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A59" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A60" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A61" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" s="2" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A62" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" s="2" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A63" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A64" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A65" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A66" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A67" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A68" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A69" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A70" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" s="7" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A71" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A72" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A73" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A74" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A75" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A76" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A77" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A78" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A79" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A80" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A81" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A82" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A83" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A84" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A85" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A86" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A87" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A88" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="89" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A89" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A90" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A91" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A92" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="93" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A93" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" ht="15.5" spans="1:1">
+      <c r="A94" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="95" ht="15.5" spans="1:1">
+      <c r="A95" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="96" ht="15.5" spans="1:1">
+      <c r="A96" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="97" ht="15.5" spans="1:1">
+      <c r="A97" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" ht="15.5" spans="1:1">
+      <c r="A98" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="99" ht="15.5" spans="1:1">
+      <c r="A99" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="100" ht="15.5" spans="1:1">
+      <c r="A100" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="101" ht="15.5" spans="1:1">
+      <c r="A101" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="102" ht="15.5" spans="1:1">
+      <c r="A102" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="103" ht="15.5" spans="1:1">
+      <c r="A103" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="104" ht="15.5" spans="1:1">
+      <c r="A104" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="105" ht="15.5" spans="1:1">
+      <c r="A105" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="106" ht="15.5" spans="1:1">
+      <c r="A106" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="107" ht="15.5" spans="1:1">
+      <c r="A107" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="108" ht="15.5" spans="1:1">
+      <c r="A108" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="109" ht="15.5" spans="1:1">
+      <c r="A109" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="110" ht="15.5" spans="1:1">
+      <c r="A110" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="111" ht="15.5" spans="1:1">
+      <c r="A111" s="14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="112" ht="15.5" spans="1:1">
+      <c r="A112" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="113" ht="15.5" spans="1:1">
+      <c r="A113" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="114" ht="15.5" spans="1:1">
+      <c r="A114" s="14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="115" ht="15.5" spans="1:1">
+      <c r="A115" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="116" s="8" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A116" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="117" ht="15.5" spans="1:1">
+      <c r="A117" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="118" ht="15.5" spans="1:1">
+      <c r="A118" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="119" ht="15.5" spans="1:1">
+      <c r="A119" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="120" ht="15.5" spans="1:1">
+      <c r="A120" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="121" ht="15.5" spans="1:1">
+      <c r="A121" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="122" ht="15.5" spans="1:1">
+      <c r="A122" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="123" ht="15.5" spans="1:1">
+      <c r="A123" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="124" ht="15.5" spans="1:1">
+      <c r="A124" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="125" ht="15.5" spans="1:1">
+      <c r="A125" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="126" ht="15.5" spans="1:1">
+      <c r="A126" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="127" ht="15.5" spans="1:1">
+      <c r="A127" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="128" ht="15.5" spans="1:1">
+      <c r="A128" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="129" ht="15.5" spans="1:1">
+      <c r="A129" s="14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="130" ht="15.5" spans="1:1">
+      <c r="A130" s="14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="131" ht="15.5" spans="1:1">
+      <c r="A131" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="132" ht="15.5" spans="1:1">
+      <c r="A132" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="133" ht="15.5" spans="1:1">
+      <c r="A133" s="14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="134" ht="15.5" spans="1:1">
+      <c r="A134" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="135" ht="15.5" spans="1:1">
+      <c r="A135" s="14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="136" ht="15.5" spans="1:1">
+      <c r="A136" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="137" ht="15.5" spans="1:1">
+      <c r="A137" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="138" ht="15.5" spans="1:1">
+      <c r="A138" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="139" s="8" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A139" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="140" ht="15.5" spans="1:1">
+      <c r="A140" s="14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="141" ht="15.5" spans="1:1">
+      <c r="A141" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="142" ht="15.5" spans="1:1">
+      <c r="A142" s="14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="143" ht="15.5" spans="1:1">
+      <c r="A143" s="14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="144" ht="15.5" spans="1:1">
+      <c r="A144" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="145" ht="15.5" spans="1:1">
+      <c r="A145" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="146" ht="15.5" spans="1:1">
+      <c r="A146" s="14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="147" ht="15.5" spans="1:1">
+      <c r="A147" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="148" ht="15.5" spans="1:1">
+      <c r="A148" s="14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="149" ht="15.5" spans="1:1">
+      <c r="A149" s="14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="150" ht="15.5" spans="1:1">
+      <c r="A150" s="14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="151" ht="15.5" spans="1:1">
+      <c r="A151" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="152" ht="15.5" spans="1:1">
+      <c r="A152" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="153" ht="15.5" spans="1:1">
+      <c r="A153" s="14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="154" ht="15.5" spans="1:1">
+      <c r="A154" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="155" ht="15.5" spans="1:1">
+      <c r="A155" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="156" ht="15.5" spans="1:1">
+      <c r="A156" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="157" ht="15.5" spans="1:1">
+      <c r="A157" s="14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="158" ht="15.5" spans="1:1">
+      <c r="A158" s="14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="159" ht="15.5" spans="1:1">
+      <c r="A159" s="14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="160" ht="15.5" spans="1:1">
+      <c r="A160" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="161" ht="15.5" spans="1:1">
+      <c r="A161" s="14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="162" ht="15.5" spans="1:1">
+      <c r="A162" s="14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="163" ht="15.5" spans="1:1">
+      <c r="A163" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="164" ht="15.5" spans="1:1">
+      <c r="A164" s="14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="165" ht="15.5" spans="1:1">
+      <c r="A165" s="14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="166" ht="15.5" spans="1:1">
+      <c r="A166" s="14" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/3.Understand/EE6427-热门考点分析.xlsx
+++ b/3.Understand/EE6427-热门考点分析.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="262">
   <si>
     <t>目录</t>
   </si>
@@ -472,10 +472,172 @@
     <t>4.1卷积神经网络(CNN)</t>
   </si>
   <si>
+    <t>4.1.1 介绍</t>
+  </si>
+  <si>
+    <t>4.1.2 线性分类器</t>
+  </si>
+  <si>
+    <t>4.1.2.1生物神经网络</t>
+  </si>
+  <si>
+    <t>4.1.2.2 多层感知器(MLP)</t>
+  </si>
+  <si>
+    <t>4.1.2.3 线性分类器</t>
+  </si>
+  <si>
+    <t>4.1.2.4 损失函数/错误函数</t>
+  </si>
+  <si>
+    <t>4.1.2.4.1 平方损失</t>
+  </si>
+  <si>
+    <t>4.1.2.4.2 均方误差MSE</t>
+  </si>
+  <si>
+    <t>4.1.2.4.3 平均绝对误差(MAE)</t>
+  </si>
+  <si>
+    <t>4.1.2.4.4 Softmax损失</t>
+  </si>
+  <si>
+    <t>4.1.3 卷积神经网络(CNN)</t>
+  </si>
+  <si>
+    <t>4.1.3.1 CNN架构</t>
+  </si>
+  <si>
+    <t>4.1.3.2 卷积层</t>
+  </si>
+  <si>
+    <t>4.1.3.3 激活函数层</t>
+  </si>
+  <si>
+    <t>4.1.3.4 池化层</t>
+  </si>
+  <si>
+    <t>4.1.3.5 全连接层</t>
+  </si>
+  <si>
+    <t>4.1.3.6 概率映射层 Softmax</t>
+  </si>
+  <si>
+    <t>4.1.4 CNN训练与优化</t>
+  </si>
+  <si>
+    <t>4.1.4.1随机梯度下降(SGD)</t>
+  </si>
+  <si>
+    <t>4.1.4.2 学习率</t>
+  </si>
+  <si>
+    <t>4.1.5 众所周知的CNN架构</t>
+  </si>
+  <si>
+    <t>4.1.6 应用</t>
+  </si>
+  <si>
     <t>4.2循环神经网络(RNN)与长短期记忆(LSTM)</t>
   </si>
   <si>
-    <t>4.3变压器</t>
+    <t>4.2.1介绍</t>
+  </si>
+  <si>
+    <t>4.2.2 递归神经网络(rnn)</t>
+  </si>
+  <si>
+    <t>4.2.2.1原版 RNN(香草RNN）</t>
+  </si>
+  <si>
+    <t>4.2.3 RNN训练与优化</t>
+  </si>
+  <si>
+    <t>4.2.3.1计算图</t>
+  </si>
+  <si>
+    <t>4.2.3.2 批训练</t>
+  </si>
+  <si>
+    <t>4.2.3.3 时间反向传播(BPTT)</t>
+  </si>
+  <si>
+    <t>4.2.3.4 截断时间反向传播</t>
+  </si>
+  <si>
+    <t>4.2.3.5梯度爆炸 梯度消失</t>
+  </si>
+  <si>
+    <t>4.2.4 长短期记忆(LSTM)</t>
+  </si>
+  <si>
+    <t>4.2.4.1 LSTM架构</t>
+  </si>
+  <si>
+    <t>4.2.4.2 RNN 与 LSTM</t>
+  </si>
+  <si>
+    <t>4.2.5 应用</t>
+  </si>
+  <si>
+    <t>4.3 Transformer</t>
+  </si>
+  <si>
+    <t>4.3.1 注意力概念</t>
+  </si>
+  <si>
+    <t>4.3.1.1什么是注意力?</t>
+  </si>
+  <si>
+    <t>4.3.1.2 注意力是如何计算的?</t>
+  </si>
+  <si>
+    <t>4.3.1.3 缩放的点积注意力</t>
+  </si>
+  <si>
+    <t>4.3.2 Transformer 架构</t>
+  </si>
+  <si>
+    <t>4.3.2.1 注意力就是你所需的一切</t>
+  </si>
+  <si>
+    <t>4.3.2.2变压器编码器</t>
+  </si>
+  <si>
+    <t>4.3.2.3 变压器解码器</t>
+  </si>
+  <si>
+    <t>4.3.2.4 变压器结构</t>
+  </si>
+  <si>
+    <t>4.3.2.5 自关注层概述</t>
+  </si>
+  <si>
+    <t>4.3.2.6 交叉注意/编码器-解码器自我注意</t>
+  </si>
+  <si>
+    <t>4.3.2.7 更多的细节</t>
+  </si>
+  <si>
+    <t>4.3.2.8 多头注意力</t>
+  </si>
+  <si>
+    <t>4.3.2.9 位置编码</t>
+  </si>
+  <si>
+    <t>4.3.2.10 剩余连接和层规范</t>
+  </si>
+  <si>
+    <t>4.3.2.11 变压器编码器+解码器架构</t>
+  </si>
+  <si>
+    <t>4.3.2.12 最后的线性和Softmax层</t>
+  </si>
+  <si>
+    <t>4.3.2.13 LSTM vs Transformer</t>
+  </si>
+  <si>
+    <t>4.3.3 ViT</t>
   </si>
   <si>
     <t>5.视频分析与理解</t>
@@ -490,9 +652,24 @@
     <t>5.1.2对象检测方法</t>
   </si>
   <si>
+    <t>5.1.2.1二级检测器</t>
+  </si>
+  <si>
+    <t>5.1.2.2一级检测器</t>
+  </si>
+  <si>
+    <t>5.1.2.3轻量级的探测器</t>
+  </si>
+  <si>
     <t>5.1.3新兴/新方法</t>
   </si>
   <si>
+    <t>5.1.3.1Swin Transform</t>
+  </si>
+  <si>
+    <t>5.1.3.2检测Transform（DETR）</t>
+  </si>
+  <si>
     <t>5.2.对象跟踪</t>
   </si>
   <si>
@@ -502,34 +679,79 @@
     <t>5.2.2多目标跟踪（MOT）</t>
   </si>
   <si>
+    <t>5.2.2.1通过检测追踪</t>
+  </si>
+  <si>
+    <t>5.2.2.2 运动模型：卡尔曼滤波</t>
+  </si>
+  <si>
+    <t>5.2.2.3 数据关联</t>
+  </si>
+  <si>
+    <t>5.2.2.4 Deep SORT</t>
+  </si>
+  <si>
     <t>5.2.3MOT中的新方法</t>
   </si>
   <si>
+    <t>5.2.3.1 Trackformer</t>
+  </si>
+  <si>
     <t>5.3.姿态估计</t>
   </si>
   <si>
-    <t>5.3.1单人姿态估计</t>
-  </si>
-  <si>
-    <t>5.3.2多人姿态估计</t>
-  </si>
-  <si>
-    <t>5.3.3新兴/新方法</t>
+    <t>5.3.1 介绍</t>
+  </si>
+  <si>
+    <t>5.3.2 单人姿态估计</t>
+  </si>
+  <si>
+    <t>5.3.2.1 回归方法Regression Method</t>
+  </si>
+  <si>
+    <t>5.3.2.2 身体部位检测Body Part Detection</t>
+  </si>
+  <si>
+    <t>5.3.3多人姿态估计</t>
+  </si>
+  <si>
+    <t>5.3.3.1 自上而下：HRNet（高分辨率网络）</t>
+  </si>
+  <si>
+    <t>5.3.3.2 自下而上：OpenPose</t>
+  </si>
+  <si>
+    <t>5.3.4 新兴/新方法</t>
+  </si>
+  <si>
+    <t>5.3.4.1 基于变压器的姿态估计 TransPose</t>
   </si>
   <si>
     <t>5.4.视频/人体动作识别（HAR）</t>
   </si>
   <si>
-    <t>5.4.1双流网络</t>
-  </si>
-  <si>
-    <t>5.4.2 3D CNNs</t>
-  </si>
-  <si>
-    <t>5.4.3高效视频建模</t>
-  </si>
-  <si>
-    <t>5.4.4 新兴/新方法</t>
+    <t>5.4.1 介绍</t>
+  </si>
+  <si>
+    <t>5.4.2 双流网络 Two-Stream Networks</t>
+  </si>
+  <si>
+    <t>5.4.3 3D CNNs</t>
+  </si>
+  <si>
+    <t>5.4.4 高效视频建模</t>
+  </si>
+  <si>
+    <t>5.4.4.1时间偏移模块Temporal Shift Module (TSM)</t>
+  </si>
+  <si>
+    <t>5.4.5 新兴/新方法</t>
+  </si>
+  <si>
+    <t>5.4.5.1视频旋转变压器Video Swin Transforme</t>
+  </si>
+  <si>
+    <t>5.4.5.2 Skeleton-based网络</t>
   </si>
   <si>
     <t>6.基础模型与生成式人工智能</t>
@@ -538,7 +760,61 @@
     <t>6.1基础模型（FMs）</t>
   </si>
   <si>
+    <t>6.1.1人工智能的现状</t>
+  </si>
+  <si>
+    <t>6.1.2 基础模型的基础</t>
+  </si>
+  <si>
+    <t>6.1.3 调整/微调fm</t>
+  </si>
+  <si>
+    <t>6.1.3.1 什么是微调？</t>
+  </si>
+  <si>
+    <t>6.1.3.2 微调过程</t>
+  </si>
+  <si>
+    <t>6.1.3.3.1适配器调优</t>
+  </si>
+  <si>
+    <t>6.1.3.3.2 低秩适配器（LoRA）</t>
+  </si>
+  <si>
+    <t>6.1.3.3.3 量化低秩适配器（QLoRA）</t>
+  </si>
+  <si>
+    <t>6.1.3.3.4 前缀调优</t>
+  </si>
+  <si>
+    <t>6.1.3.3.5 提示优化</t>
+  </si>
+  <si>
     <t>6.2大型语言模型（LLMs）</t>
+  </si>
+  <si>
+    <t>6.2.1 介绍</t>
+  </si>
+  <si>
+    <t>6.2.2 变压器的双向编码器表示（BERT）</t>
+  </si>
+  <si>
+    <t>6.2.2.1 阶段1：预训练</t>
+  </si>
+  <si>
+    <t>6.2.2.2 阶段2：针对特定任务进行微调</t>
+  </si>
+  <si>
+    <t>6.2.3 生成预训练变压器（GPT）</t>
+  </si>
+  <si>
+    <t>6.2.4 知名LLM</t>
+  </si>
+  <si>
+    <t>6.2.5新兴的趋势</t>
+  </si>
+  <si>
+    <t>6.2.5.1 Multimodal LLM (MLLM)</t>
   </si>
 </sst>
 </file>
@@ -1199,7 +1475,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1218,16 +1494,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1242,13 +1512,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1562,19 +1832,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E166"/>
+  <dimension ref="A1:E258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A139" sqref="$A71:$XFD71 $A116:$XFD116 $A139:$XFD139"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="44" style="9" customWidth="1"/>
-    <col min="2" max="2" width="11.6363636363636" style="9" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="44" style="7" customWidth="1"/>
+    <col min="2" max="2" width="11.6363636363636" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -1595,828 +1865,1288 @@
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="20" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="22" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="23" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="26" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="27" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="28" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="29" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="30" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="32" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="33" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="34" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="35" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="36" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="37" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="38" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="39" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="40" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="41" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="42" s="5" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="11" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="43" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="44" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="45" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="46" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="47" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="10" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="48" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="49" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="10" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="50" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="10" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="51" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="10" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="52" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="53" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="10" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="54" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="55" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="56" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A56" s="12" t="s">
+      <c r="A56" s="10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="57" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A57" s="12" t="s">
+      <c r="A57" s="10" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="58" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="59" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="60" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A60" s="12" t="s">
+      <c r="A60" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="61" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A61" s="12" t="s">
+      <c r="A61" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="62" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A62" s="14" t="s">
+    <row r="62" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A62" s="12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A63" s="14" t="s">
+    <row r="63" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A63" s="12" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="64" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="10" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="65" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A66" s="15" t="s">
+    <row r="66" s="5" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A66" s="11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A67" s="15" t="s">
+    <row r="67" s="5" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A67" s="11" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="68" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A68" s="15" t="s">
+    <row r="68" s="5" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A68" s="11" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="69" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="10" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="70" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A70" s="14" t="s">
+      <c r="A70" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="71" s="7" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A71" s="16" t="s">
+    <row r="71" s="2" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A71" s="8" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="72" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A72" s="14" t="s">
+      <c r="A72" s="10" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="73" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A73" s="14" t="s">
+      <c r="A73" s="10" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="74" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A74" s="14" t="s">
+      <c r="A74" s="10" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="75" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A75" s="14" t="s">
+      <c r="A75" s="10" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="76" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A76" s="14" t="s">
+      <c r="A76" s="10" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="77" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A77" s="14" t="s">
+      <c r="A77" s="10" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="78" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A78" s="14" t="s">
+      <c r="A78" s="10" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="79" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A79" s="14" t="s">
+      <c r="A79" s="10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="80" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A80" s="14" t="s">
+      <c r="A80" s="10" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="81" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A81" s="14" t="s">
+      <c r="A81" s="10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="82" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A82" s="14" t="s">
+      <c r="A82" s="10" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="83" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A83" s="14" t="s">
+      <c r="A83" s="10" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="84" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A84" s="14" t="s">
+      <c r="A84" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="85" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A85" s="14" t="s">
+      <c r="A85" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="86" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A86" s="14" t="s">
+      <c r="A86" s="10" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="87" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A87" s="14" t="s">
+      <c r="A87" s="10" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="88" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A88" s="14" t="s">
+      <c r="A88" s="10" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="89" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A89" s="14" t="s">
+      <c r="A89" s="10" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="90" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A90" s="14" t="s">
+      <c r="A90" s="10" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="91" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A91" s="14" t="s">
+      <c r="A91" s="10" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="92" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A92" s="14" t="s">
+      <c r="A92" s="10" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="93" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A93" s="14" t="s">
+      <c r="A93" s="10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="94" ht="15.5" spans="1:1">
-      <c r="A94" s="14" t="s">
+    <row r="94" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A94" s="10" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="95" ht="15.5" spans="1:1">
-      <c r="A95" s="14" t="s">
+    <row r="95" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A95" s="10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="96" ht="15.5" spans="1:1">
-      <c r="A96" s="14" t="s">
+    <row r="96" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A96" s="10" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="97" ht="15.5" spans="1:1">
-      <c r="A97" s="14" t="s">
+    <row r="97" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A97" s="10" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="98" ht="15.5" spans="1:1">
-      <c r="A98" s="14" t="s">
+    <row r="98" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A98" s="10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="99" ht="15.5" spans="1:1">
-      <c r="A99" s="14" t="s">
+    <row r="99" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A99" s="10" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="100" ht="15.5" spans="1:1">
-      <c r="A100" s="14" t="s">
+    <row r="100" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A100" s="10" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="101" ht="15.5" spans="1:1">
-      <c r="A101" s="14" t="s">
+    <row r="101" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A101" s="10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="102" ht="15.5" spans="1:1">
-      <c r="A102" s="14" t="s">
+    <row r="102" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A102" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="103" ht="15.5" spans="1:1">
-      <c r="A103" s="14" t="s">
+    <row r="103" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A103" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="104" ht="15.5" spans="1:1">
-      <c r="A104" s="14" t="s">
+    <row r="104" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A104" s="10" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="105" ht="15.5" spans="1:1">
-      <c r="A105" s="14" t="s">
+    <row r="105" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A105" s="10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="106" ht="15.5" spans="1:1">
-      <c r="A106" s="14" t="s">
+    <row r="106" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A106" s="10" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="107" ht="15.5" spans="1:1">
-      <c r="A107" s="14" t="s">
+    <row r="107" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A107" s="10" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="108" ht="15.5" spans="1:1">
-      <c r="A108" s="14" t="s">
+    <row r="108" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A108" s="10" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="109" ht="15.5" spans="1:1">
-      <c r="A109" s="14" t="s">
+    <row r="109" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A109" s="10" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="110" ht="15.5" spans="1:1">
-      <c r="A110" s="14" t="s">
+    <row r="110" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A110" s="10" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="111" ht="15.5" spans="1:1">
-      <c r="A111" s="14" t="s">
+    <row r="111" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A111" s="10" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="112" ht="15.5" spans="1:1">
-      <c r="A112" s="14" t="s">
+    <row r="112" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A112" s="10" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="113" ht="15.5" spans="1:1">
-      <c r="A113" s="14" t="s">
+    <row r="113" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A113" s="10" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="114" ht="15.5" spans="1:1">
-      <c r="A114" s="14" t="s">
+    <row r="114" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A114" s="10" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="115" ht="15.5" spans="1:1">
-      <c r="A115" s="14" t="s">
+    <row r="115" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A115" s="10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="116" s="8" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A116" s="16" t="s">
+    <row r="116" s="2" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A116" s="8" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="117" ht="15.5" spans="1:1">
-      <c r="A117" s="14" t="s">
+    <row r="117" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A117" s="10" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="118" ht="15.5" spans="1:1">
-      <c r="A118" s="14" t="s">
+    <row r="118" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A118" s="10" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="119" ht="15.5" spans="1:1">
-      <c r="A119" s="14" t="s">
+    <row r="119" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A119" s="10" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="120" ht="15.5" spans="1:1">
-      <c r="A120" s="14" t="s">
+    <row r="120" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A120" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="121" ht="15.5" spans="1:1">
-      <c r="A121" s="14" t="s">
+    <row r="121" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A121" s="10" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="122" ht="15.5" spans="1:1">
-      <c r="A122" s="14" t="s">
+    <row r="122" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A122" s="10" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="123" ht="15.5" spans="1:1">
-      <c r="A123" s="14" t="s">
+    <row r="123" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A123" s="10" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="124" ht="15.5" spans="1:1">
-      <c r="A124" s="14" t="s">
+    <row r="124" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A124" s="10" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="125" ht="15.5" spans="1:1">
-      <c r="A125" s="14" t="s">
+    <row r="125" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A125" s="10" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="126" ht="15.5" spans="1:1">
-      <c r="A126" s="14" t="s">
+    <row r="126" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A126" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="127" ht="15.5" spans="1:1">
-      <c r="A127" s="14" t="s">
+    <row r="127" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A127" s="10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="128" ht="15.5" spans="1:1">
-      <c r="A128" s="14" t="s">
+    <row r="128" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A128" s="10" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="129" ht="15.5" spans="1:1">
-      <c r="A129" s="14" t="s">
+    <row r="129" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A129" s="10" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="130" ht="15.5" spans="1:1">
-      <c r="A130" s="14" t="s">
+    <row r="130" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A130" s="10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="131" ht="15.5" spans="1:1">
-      <c r="A131" s="14" t="s">
+    <row r="131" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A131" s="10" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="132" ht="15.5" spans="1:1">
-      <c r="A132" s="14" t="s">
+    <row r="132" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A132" s="10" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="133" ht="15.5" spans="1:1">
-      <c r="A133" s="14" t="s">
+    <row r="133" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A133" s="10" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="134" ht="15.5" spans="1:1">
-      <c r="A134" s="14" t="s">
+    <row r="134" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A134" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="135" ht="15.5" spans="1:1">
-      <c r="A135" s="14" t="s">
+    <row r="135" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A135" s="10" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="136" ht="15.5" spans="1:1">
-      <c r="A136" s="14" t="s">
+    <row r="136" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A136" s="10" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="137" ht="15.5" spans="1:1">
-      <c r="A137" s="14" t="s">
+    <row r="137" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A137" s="10" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="138" ht="15.5" spans="1:1">
-      <c r="A138" s="14" t="s">
+    <row r="138" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A138" s="10" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="139" s="8" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A139" s="16" t="s">
+    <row r="139" s="2" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A139" s="8" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="140" ht="15.5" spans="1:1">
-      <c r="A140" s="14" t="s">
+    <row r="140" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A140" s="10" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="141" ht="15.5" spans="1:1">
-      <c r="A141" s="14" t="s">
+    <row r="141" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A141" s="10" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="142" ht="15.5" spans="1:1">
-      <c r="A142" s="14" t="s">
+    <row r="142" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A142" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="143" ht="15.5" spans="1:1">
-      <c r="A143" s="14" t="s">
+    <row r="143" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A143" s="13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="144" ht="15.5" spans="1:1">
+    <row r="144" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A144" s="14" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="145" ht="15.5" spans="1:1">
+    <row r="145" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A145" s="14" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="146" ht="15.5" spans="1:1">
+    <row r="146" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A146" s="14" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="147" ht="15.5" spans="1:1">
+    <row r="147" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A147" s="14" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="148" ht="15.5" spans="1:1">
+    <row r="148" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A148" s="14" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="149" ht="15.5" spans="1:1">
+    <row r="149" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A149" s="14" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="150" ht="15.5" spans="1:1">
+    <row r="150" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A150" s="14" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="151" ht="15.5" spans="1:1">
+    <row r="151" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A151" s="14" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="152" ht="15.5" spans="1:1">
+    <row r="152" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A152" s="14" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="153" ht="15.5" spans="1:1">
+    <row r="153" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A153" s="14" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="154" ht="15.5" spans="1:1">
+    <row r="154" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A154" s="14" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="155" ht="15.5" spans="1:1">
+    <row r="155" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A155" s="14" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="156" ht="15.5" spans="1:1">
+    <row r="156" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A156" s="14" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="157" ht="15.5" spans="1:1">
+    <row r="157" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A157" s="14" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="158" ht="15.5" spans="1:1">
+    <row r="158" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A158" s="14" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="159" ht="15.5" spans="1:1">
+    <row r="159" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A159" s="14" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="160" ht="15.5" spans="1:1">
+    <row r="160" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A160" s="14" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="161" ht="15.5" spans="1:1">
+    <row r="161" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A161" s="14" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="162" ht="15.5" spans="1:1">
+    <row r="162" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A162" s="14" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="163" ht="15.5" spans="1:1">
+    <row r="163" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A163" s="14" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="164" ht="15.5" spans="1:1">
+    <row r="164" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A164" s="14" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="165" ht="15.5" spans="1:1">
+    <row r="165" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A165" s="14" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="166" ht="15.5" spans="1:1">
-      <c r="A166" s="14" t="s">
+    <row r="166" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A166" s="13" t="s">
         <v>169</v>
+      </c>
+    </row>
+    <row r="167" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A167" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="168" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A168" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="169" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A169" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="170" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A170" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="171" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A171" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="172" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A172" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="173" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A173" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="174" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A174" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="175" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A175" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="176" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A176" s="14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="177" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A177" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="178" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A178" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="179" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A179" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="180" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A180" s="13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="181" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A181" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="182" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A182" s="14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="183" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A183" s="14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="184" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A184" s="14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="185" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A185" s="14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="186" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A186" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="187" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A187" s="14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="188" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A188" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="189" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A189" s="14" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="190" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A190" s="14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="191" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A191" s="14" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="192" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A192" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="193" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A193" s="14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="194" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A194" s="14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="195" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A195" s="14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="196" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A196" s="14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="197" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A197" s="14" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="198" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A198" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="199" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A199" s="14" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="200" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A200" s="13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="201" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A201" s="13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="202" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A202" s="14" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="203" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A203" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="204" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A204" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="205" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A205" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="206" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A206" s="14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="207" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A207" s="14" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="208" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A208" s="14" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="209" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A209" s="14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="210" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A210" s="13" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="211" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A211" s="14" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="212" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A212" s="14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="213" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A213" s="14" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="214" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A214" s="14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="215" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A215" s="14" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="216" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A216" s="14" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="217" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A217" s="14" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="218" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A218" s="14" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="219" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A219" s="13" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="220" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A220" s="14" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="221" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A221" s="14" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="222" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A222" s="14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="223" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A223" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="224" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A224" s="14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="225" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A225" s="14" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="226" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A226" s="14" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="227" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A227" s="14" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="228" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A228" s="14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="229" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A229" s="13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="230" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A230" s="14" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="231" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A231" s="14" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="232" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A232" s="14" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="233" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A233" s="14" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="234" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A234" s="14" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="235" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A235" s="14" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="236" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A236" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="237" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A237" s="14" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="238" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A238" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="239" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A239" s="13" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="240" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A240" s="14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="241" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A241" s="14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="242" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A242" s="14" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="243" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A243" s="14" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="244" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A244" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="245" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A245" s="14" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="246" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A246" s="14" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="247" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A247" s="14" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="248" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A248" s="14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="249" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A249" s="14" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="250" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A250" s="13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="251" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A251" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="252" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A252" s="14" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="253" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A253" s="14" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="254" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A254" s="14" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="255" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A255" s="14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="256" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A256" s="14" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="257" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A257" s="14" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="258" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A258" s="14" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/3.Understand/EE6427-热门考点分析.xlsx
+++ b/3.Understand/EE6427-热门考点分析.xlsx
@@ -29,12 +29,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="266">
   <si>
     <t>目录</t>
   </si>
   <si>
-    <t>题目23-S2</t>
+    <t>23-S2</t>
   </si>
   <si>
     <t>23-S1</t>
@@ -73,16 +73,47 @@
     <t>2.1.1.什么是压缩/编码？</t>
   </si>
   <si>
-    <t>2.1.2.压缩比</t>
+    <r>
+      <t>2.1.2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>压缩比</t>
+    </r>
+  </si>
+  <si>
+    <t>Q1：压缩比</t>
   </si>
   <si>
     <t>2.1.3.信息论基础</t>
   </si>
   <si>
+    <t>Q1：熵</t>
+  </si>
+  <si>
     <t>2.2.熵编码</t>
   </si>
   <si>
-    <t>2.2.1.霍夫曼编码</t>
+    <r>
+      <t>2.2.1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>霍夫曼编码</t>
+    </r>
+  </si>
+  <si>
+    <t>Q1：霍夫曼编码</t>
   </si>
   <si>
     <t>2.3.图像和视频压缩</t>
@@ -223,7 +254,21 @@
     <t>2.6.11.1JPEG比特流格式</t>
   </si>
   <si>
-    <t>2.6.12 JPEG解码器</t>
+    <r>
+      <t>2.6.12 JPEG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>解码器</t>
+    </r>
+  </si>
+  <si>
+    <t>Q1：JPEG解码器流程图</t>
   </si>
   <si>
     <t>3.视频压缩和标准</t>
@@ -827,7 +872,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -985,6 +1030,12 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -1013,7 +1064,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
+        <fgColor theme="7" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1475,7 +1526,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1494,31 +1545,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1837,14 +1882,14 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="44" style="7" customWidth="1"/>
-    <col min="2" max="2" width="11.6363636363636" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="44" style="6" customWidth="1"/>
+    <col min="2" max="2" width="23" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -1865,1288 +1910,1300 @@
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" ht="15.5" spans="1:1">
+    <row r="11" s="3" customFormat="1" ht="15.5" spans="1:2">
       <c r="A11" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" s="3" customFormat="1" ht="15.5" spans="1:1">
+      <c r="B11" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" ht="15.5" spans="1:2">
       <c r="A12" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A13" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" s="3" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A13" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" s="3" customFormat="1" ht="15.5" spans="1:2">
       <c r="A14" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A15" s="8" t="s">
-        <v>18</v>
+      <c r="A15" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="16" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A16" s="9" t="s">
-        <v>19</v>
+      <c r="A16" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A17" s="9" t="s">
-        <v>20</v>
+      <c r="A17" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A18" s="9" t="s">
-        <v>21</v>
+      <c r="A18" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A19" s="9" t="s">
-        <v>22</v>
+      <c r="A19" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="20" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A20" s="9" t="s">
-        <v>23</v>
+      <c r="A20" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="21" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A21" s="9" t="s">
-        <v>24</v>
+      <c r="A21" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="22" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A22" s="9" t="s">
-        <v>25</v>
+      <c r="A22" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="23" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A23" s="9" t="s">
-        <v>26</v>
+      <c r="A23" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A24" s="8" t="s">
-        <v>27</v>
+      <c r="A24" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="25" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A25" s="9" t="s">
-        <v>28</v>
+      <c r="A25" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="26" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A26" s="9" t="s">
-        <v>29</v>
+      <c r="A26" s="8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="27" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A27" s="10" t="s">
-        <v>30</v>
+      <c r="A27" s="11" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="28" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A28" s="10" t="s">
-        <v>31</v>
+      <c r="A28" s="11" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="29" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A29" s="10" t="s">
-        <v>32</v>
+      <c r="A29" s="11" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="30" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A30" s="10" t="s">
-        <v>33</v>
+      <c r="A30" s="11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A31" s="8" t="s">
-        <v>34</v>
+      <c r="A31" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="32" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A32" s="10" t="s">
-        <v>35</v>
+      <c r="A32" s="11" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="33" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A33" s="10" t="s">
-        <v>36</v>
+      <c r="A33" s="11" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="34" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A34" s="10" t="s">
-        <v>37</v>
+      <c r="A34" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="35" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A35" s="10" t="s">
-        <v>38</v>
+      <c r="A35" s="11" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="36" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A36" s="10" t="s">
-        <v>39</v>
+      <c r="A36" s="11" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="37" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A37" s="8" t="s">
-        <v>40</v>
+      <c r="A37" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="38" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A38" s="10" t="s">
-        <v>41</v>
+      <c r="A38" s="11" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="39" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A39" s="10" t="s">
-        <v>42</v>
+      <c r="A39" s="11" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="40" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A40" s="10" t="s">
-        <v>43</v>
+      <c r="A40" s="11" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="41" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A41" s="10" t="s">
-        <v>44</v>
+      <c r="A41" s="11" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="42" s="5" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A42" s="11" t="s">
-        <v>45</v>
+      <c r="A42" s="12" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="43" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A43" s="10" t="s">
-        <v>46</v>
+      <c r="A43" s="11" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="44" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A44" s="10" t="s">
-        <v>47</v>
+      <c r="A44" s="11" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="45" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A45" s="10" t="s">
-        <v>48</v>
+      <c r="A45" s="11" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="46" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A46" s="10" t="s">
-        <v>49</v>
+      <c r="A46" s="11" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="47" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A47" s="10" t="s">
-        <v>50</v>
+      <c r="A47" s="11" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="48" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A48" s="10" t="s">
-        <v>51</v>
+      <c r="A48" s="11" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="49" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A49" s="10" t="s">
-        <v>52</v>
+      <c r="A49" s="11" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="50" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A50" s="10" t="s">
-        <v>53</v>
+      <c r="A50" s="11" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="51" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A51" s="10" t="s">
-        <v>54</v>
+      <c r="A51" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="52" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A52" s="10" t="s">
-        <v>55</v>
+      <c r="A52" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="53" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A53" s="10" t="s">
-        <v>56</v>
+      <c r="A53" s="11" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="54" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A54" s="10" t="s">
-        <v>57</v>
+      <c r="A54" s="11" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="55" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A55" s="10" t="s">
-        <v>58</v>
+      <c r="A55" s="11" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="56" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A56" s="10" t="s">
-        <v>59</v>
+      <c r="A56" s="11" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="57" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A57" s="10" t="s">
-        <v>60</v>
+      <c r="A57" s="11" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="58" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A58" s="10" t="s">
-        <v>61</v>
+      <c r="A58" s="11" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="59" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A59" s="10" t="s">
-        <v>62</v>
+      <c r="A59" s="11" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="60" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A60" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="61" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A61" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="62" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A62" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="63" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A63" s="12" t="s">
+      <c r="A60" s="11" t="s">
         <v>66</v>
       </c>
     </row>
+    <row r="61" s="4" customFormat="1" ht="15.5" spans="1:2">
+      <c r="A61" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" s="2" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A62" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" s="2" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A63" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
     <row r="64" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A64" s="10" t="s">
-        <v>67</v>
+      <c r="A64" s="11" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="65" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A65" s="10" t="s">
-        <v>68</v>
+      <c r="A65" s="11" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="66" s="5" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A66" s="11" t="s">
-        <v>69</v>
+      <c r="A66" s="12" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="67" s="5" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A67" s="11" t="s">
-        <v>70</v>
+      <c r="A67" s="12" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="68" s="5" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A68" s="11" t="s">
-        <v>71</v>
+      <c r="A68" s="12" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="69" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A69" s="10" t="s">
-        <v>72</v>
+      <c r="A69" s="11" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="70" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A70" s="10" t="s">
-        <v>73</v>
+      <c r="A70" s="11" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="71" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A71" s="8" t="s">
-        <v>74</v>
+      <c r="A71" s="7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="72" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A72" s="10" t="s">
-        <v>75</v>
+      <c r="A72" s="11" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="73" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A73" s="10" t="s">
-        <v>76</v>
+      <c r="A73" s="11" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="74" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A74" s="10" t="s">
-        <v>77</v>
+      <c r="A74" s="11" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="75" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A75" s="10" t="s">
-        <v>78</v>
+      <c r="A75" s="11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="76" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A76" s="10" t="s">
-        <v>79</v>
+      <c r="A76" s="11" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="77" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A77" s="10" t="s">
-        <v>80</v>
+      <c r="A77" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="78" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A78" s="10" t="s">
-        <v>81</v>
+      <c r="A78" s="11" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="79" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A79" s="10" t="s">
-        <v>82</v>
+      <c r="A79" s="11" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="80" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A80" s="10" t="s">
-        <v>83</v>
+      <c r="A80" s="11" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="81" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A81" s="10" t="s">
-        <v>84</v>
+      <c r="A81" s="11" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="82" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A82" s="10" t="s">
-        <v>85</v>
+      <c r="A82" s="11" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="83" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A83" s="10" t="s">
-        <v>86</v>
+      <c r="A83" s="11" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="84" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A84" s="10" t="s">
-        <v>87</v>
+      <c r="A84" s="11" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="85" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A85" s="10" t="s">
-        <v>88</v>
+      <c r="A85" s="11" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="86" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A86" s="10" t="s">
-        <v>89</v>
+      <c r="A86" s="11" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="87" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A87" s="10" t="s">
-        <v>90</v>
+      <c r="A87" s="11" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="88" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A88" s="10" t="s">
-        <v>91</v>
+      <c r="A88" s="11" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="89" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A89" s="10" t="s">
-        <v>92</v>
+      <c r="A89" s="11" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="90" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A90" s="10" t="s">
-        <v>93</v>
+      <c r="A90" s="11" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="91" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A91" s="10" t="s">
-        <v>94</v>
+      <c r="A91" s="11" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="92" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A92" s="10" t="s">
-        <v>95</v>
+      <c r="A92" s="11" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="93" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A93" s="10" t="s">
-        <v>96</v>
+      <c r="A93" s="11" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="94" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A94" s="10" t="s">
-        <v>97</v>
+      <c r="A94" s="11" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="95" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A95" s="10" t="s">
-        <v>98</v>
+      <c r="A95" s="11" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="96" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A96" s="10" t="s">
-        <v>99</v>
+      <c r="A96" s="11" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="97" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A97" s="10" t="s">
-        <v>100</v>
+      <c r="A97" s="11" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="98" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A98" s="10" t="s">
-        <v>101</v>
+      <c r="A98" s="11" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="99" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A99" s="10" t="s">
-        <v>102</v>
+      <c r="A99" s="11" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="100" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A100" s="10" t="s">
-        <v>103</v>
+      <c r="A100" s="11" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="101" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A101" s="10" t="s">
-        <v>104</v>
+      <c r="A101" s="11" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="102" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A102" s="10" t="s">
-        <v>105</v>
+      <c r="A102" s="11" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="103" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A103" s="10" t="s">
-        <v>106</v>
+      <c r="A103" s="11" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="104" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A104" s="10" t="s">
-        <v>107</v>
+      <c r="A104" s="11" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="105" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A105" s="10" t="s">
-        <v>108</v>
+      <c r="A105" s="11" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="106" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A106" s="10" t="s">
-        <v>109</v>
+      <c r="A106" s="11" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="107" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A107" s="10" t="s">
-        <v>110</v>
+      <c r="A107" s="11" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="108" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A108" s="10" t="s">
-        <v>111</v>
+      <c r="A108" s="11" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="109" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A109" s="10" t="s">
-        <v>112</v>
+      <c r="A109" s="11" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="110" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A110" s="10" t="s">
-        <v>113</v>
+      <c r="A110" s="11" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="111" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A111" s="10" t="s">
-        <v>114</v>
+      <c r="A111" s="11" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="112" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A112" s="10" t="s">
-        <v>115</v>
+      <c r="A112" s="11" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="113" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A113" s="10" t="s">
-        <v>116</v>
+      <c r="A113" s="11" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="114" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A114" s="10" t="s">
-        <v>117</v>
+      <c r="A114" s="11" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="115" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A115" s="10" t="s">
-        <v>118</v>
+      <c r="A115" s="11" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="116" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A116" s="8" t="s">
-        <v>119</v>
+      <c r="A116" s="7" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="117" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A117" s="10" t="s">
-        <v>120</v>
+      <c r="A117" s="11" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="118" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A118" s="10" t="s">
-        <v>121</v>
+      <c r="A118" s="11" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="119" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A119" s="10" t="s">
-        <v>122</v>
+      <c r="A119" s="11" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="120" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A120" s="10" t="s">
-        <v>123</v>
+      <c r="A120" s="11" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="121" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A121" s="10" t="s">
-        <v>124</v>
+      <c r="A121" s="11" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="122" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A122" s="10" t="s">
-        <v>125</v>
+      <c r="A122" s="11" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="123" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A123" s="10" t="s">
-        <v>126</v>
+      <c r="A123" s="11" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="124" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A124" s="10" t="s">
-        <v>127</v>
+      <c r="A124" s="11" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="125" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A125" s="10" t="s">
-        <v>128</v>
+      <c r="A125" s="11" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="126" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A126" s="10" t="s">
-        <v>129</v>
+      <c r="A126" s="11" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="127" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A127" s="10" t="s">
-        <v>130</v>
+      <c r="A127" s="11" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="128" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A128" s="10" t="s">
-        <v>131</v>
+      <c r="A128" s="11" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="129" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A129" s="10" t="s">
-        <v>132</v>
+      <c r="A129" s="11" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="130" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A130" s="10" t="s">
-        <v>133</v>
+      <c r="A130" s="11" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="131" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A131" s="10" t="s">
-        <v>134</v>
+      <c r="A131" s="11" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="132" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A132" s="10" t="s">
-        <v>135</v>
+      <c r="A132" s="11" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="133" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A133" s="10" t="s">
-        <v>136</v>
+      <c r="A133" s="11" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="134" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A134" s="10" t="s">
-        <v>137</v>
+      <c r="A134" s="11" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="135" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A135" s="10" t="s">
-        <v>138</v>
+      <c r="A135" s="11" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="136" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A136" s="10" t="s">
-        <v>139</v>
+      <c r="A136" s="11" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="137" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A137" s="10" t="s">
-        <v>140</v>
+      <c r="A137" s="11" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="138" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A138" s="10" t="s">
-        <v>141</v>
+      <c r="A138" s="11" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="139" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A139" s="8" t="s">
-        <v>142</v>
+      <c r="A139" s="7" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="140" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A140" s="10" t="s">
-        <v>143</v>
+      <c r="A140" s="11" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="141" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A141" s="10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="142" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A142" s="13" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="143" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A143" s="13" t="s">
-        <v>146</v>
+      <c r="A141" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="142" s="2" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A142" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="143" s="2" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A143" s="7" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="144" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A144" s="14" t="s">
-        <v>147</v>
+      <c r="A144" s="11" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="145" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A145" s="14" t="s">
-        <v>148</v>
+      <c r="A145" s="11" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="146" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A146" s="14" t="s">
-        <v>149</v>
+      <c r="A146" s="11" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="147" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A147" s="14" t="s">
-        <v>150</v>
+      <c r="A147" s="11" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="148" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A148" s="14" t="s">
-        <v>151</v>
+      <c r="A148" s="11" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="149" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A149" s="14" t="s">
-        <v>152</v>
+      <c r="A149" s="11" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="150" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A150" s="14" t="s">
-        <v>153</v>
+      <c r="A150" s="11" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="151" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A151" s="14" t="s">
-        <v>154</v>
+      <c r="A151" s="11" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="152" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A152" s="14" t="s">
-        <v>155</v>
+      <c r="A152" s="11" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="153" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A153" s="14" t="s">
-        <v>156</v>
+      <c r="A153" s="11" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="154" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A154" s="14" t="s">
-        <v>157</v>
+      <c r="A154" s="11" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="155" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A155" s="14" t="s">
-        <v>158</v>
+      <c r="A155" s="11" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="156" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A156" s="14" t="s">
-        <v>159</v>
+      <c r="A156" s="11" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="157" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A157" s="14" t="s">
-        <v>160</v>
+      <c r="A157" s="11" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="158" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A158" s="14" t="s">
-        <v>161</v>
+      <c r="A158" s="11" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="159" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A159" s="14" t="s">
-        <v>162</v>
+      <c r="A159" s="11" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="160" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A160" s="14" t="s">
-        <v>163</v>
+      <c r="A160" s="11" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="161" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A161" s="14" t="s">
-        <v>164</v>
+      <c r="A161" s="11" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="162" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A162" s="14" t="s">
-        <v>165</v>
+      <c r="A162" s="11" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="163" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A163" s="14" t="s">
-        <v>166</v>
+      <c r="A163" s="11" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="164" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A164" s="14" t="s">
-        <v>167</v>
+      <c r="A164" s="11" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="165" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A165" s="14" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="166" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A166" s="13" t="s">
-        <v>169</v>
+      <c r="A165" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="166" s="2" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A166" s="7" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="167" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A167" s="14" t="s">
-        <v>170</v>
+      <c r="A167" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="168" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A168" s="14" t="s">
-        <v>171</v>
+      <c r="A168" s="11" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="169" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A169" s="14" t="s">
-        <v>172</v>
+      <c r="A169" s="11" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="170" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A170" s="14" t="s">
-        <v>173</v>
+      <c r="A170" s="11" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="171" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A171" s="14" t="s">
-        <v>174</v>
+      <c r="A171" s="11" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="172" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A172" s="14" t="s">
-        <v>175</v>
+      <c r="A172" s="11" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="173" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A173" s="14" t="s">
-        <v>176</v>
+      <c r="A173" s="11" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="174" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A174" s="14" t="s">
-        <v>177</v>
+      <c r="A174" s="11" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="175" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A175" s="14" t="s">
-        <v>178</v>
+      <c r="A175" s="11" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="176" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A176" s="14" t="s">
-        <v>179</v>
+      <c r="A176" s="11" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="177" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A177" s="14" t="s">
-        <v>180</v>
+      <c r="A177" s="11" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="178" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A178" s="14" t="s">
-        <v>181</v>
+      <c r="A178" s="11" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="179" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A179" s="14" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="180" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A180" s="13" t="s">
-        <v>183</v>
+      <c r="A179" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="180" s="2" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A180" s="7" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="181" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A181" s="14" t="s">
-        <v>184</v>
+      <c r="A181" s="11" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="182" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A182" s="14" t="s">
-        <v>185</v>
+      <c r="A182" s="11" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="183" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A183" s="14" t="s">
-        <v>186</v>
+      <c r="A183" s="11" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="184" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A184" s="14" t="s">
-        <v>187</v>
+      <c r="A184" s="11" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="185" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A185" s="14" t="s">
-        <v>188</v>
+      <c r="A185" s="11" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="186" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A186" s="14" t="s">
-        <v>189</v>
+      <c r="A186" s="11" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="187" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A187" s="14" t="s">
-        <v>190</v>
+      <c r="A187" s="11" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="188" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A188" s="14" t="s">
-        <v>191</v>
+      <c r="A188" s="11" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="189" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A189" s="14" t="s">
-        <v>192</v>
+      <c r="A189" s="11" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="190" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A190" s="14" t="s">
-        <v>193</v>
+      <c r="A190" s="11" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="191" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A191" s="14" t="s">
-        <v>194</v>
+      <c r="A191" s="11" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="192" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A192" s="14" t="s">
-        <v>195</v>
+      <c r="A192" s="11" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="193" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A193" s="14" t="s">
-        <v>196</v>
+      <c r="A193" s="11" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="194" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A194" s="14" t="s">
-        <v>197</v>
+      <c r="A194" s="11" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="195" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A195" s="14" t="s">
-        <v>198</v>
+      <c r="A195" s="11" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="196" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A196" s="14" t="s">
-        <v>199</v>
+      <c r="A196" s="11" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="197" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A197" s="14" t="s">
-        <v>200</v>
+      <c r="A197" s="11" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="198" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A198" s="14" t="s">
-        <v>201</v>
+      <c r="A198" s="11" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="199" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A199" s="14" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="200" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A200" s="13" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="201" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A201" s="13" t="s">
-        <v>204</v>
+      <c r="A199" s="11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="200" s="2" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A200" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="201" s="2" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A201" s="7" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="202" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A202" s="14" t="s">
-        <v>205</v>
+      <c r="A202" s="11" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="203" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A203" s="14" t="s">
-        <v>206</v>
+      <c r="A203" s="11" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="204" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A204" s="14" t="s">
-        <v>207</v>
+      <c r="A204" s="11" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="205" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A205" s="14" t="s">
-        <v>208</v>
+      <c r="A205" s="11" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="206" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A206" s="14" t="s">
-        <v>209</v>
+      <c r="A206" s="11" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="207" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A207" s="14" t="s">
-        <v>210</v>
+      <c r="A207" s="11" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="208" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A208" s="14" t="s">
-        <v>211</v>
+      <c r="A208" s="11" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="209" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A209" s="14" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="210" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A210" s="13" t="s">
-        <v>213</v>
+      <c r="A209" s="11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="210" s="2" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A210" s="7" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="211" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A211" s="14" t="s">
-        <v>214</v>
+      <c r="A211" s="11" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="212" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A212" s="14" t="s">
-        <v>215</v>
+      <c r="A212" s="11" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="213" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A213" s="14" t="s">
-        <v>216</v>
+      <c r="A213" s="11" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="214" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A214" s="14" t="s">
-        <v>217</v>
+      <c r="A214" s="11" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="215" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A215" s="14" t="s">
-        <v>218</v>
+      <c r="A215" s="11" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="216" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A216" s="14" t="s">
-        <v>219</v>
+      <c r="A216" s="11" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="217" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A217" s="14" t="s">
-        <v>220</v>
+      <c r="A217" s="11" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="218" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A218" s="14" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="219" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A219" s="13" t="s">
-        <v>222</v>
+      <c r="A218" s="11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="219" s="2" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A219" s="7" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="220" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A220" s="14" t="s">
-        <v>223</v>
+      <c r="A220" s="11" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="221" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A221" s="14" t="s">
-        <v>224</v>
+      <c r="A221" s="11" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="222" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A222" s="14" t="s">
-        <v>225</v>
+      <c r="A222" s="11" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="223" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A223" s="14" t="s">
-        <v>226</v>
+      <c r="A223" s="11" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="224" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A224" s="14" t="s">
-        <v>227</v>
+      <c r="A224" s="11" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="225" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A225" s="14" t="s">
-        <v>228</v>
+      <c r="A225" s="11" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="226" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A226" s="14" t="s">
-        <v>229</v>
+      <c r="A226" s="11" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="227" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A227" s="14" t="s">
-        <v>230</v>
+      <c r="A227" s="11" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="228" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A228" s="14" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="229" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A229" s="13" t="s">
-        <v>232</v>
+      <c r="A228" s="11" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="229" s="2" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A229" s="7" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="230" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A230" s="14" t="s">
-        <v>233</v>
+      <c r="A230" s="11" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="231" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A231" s="14" t="s">
-        <v>234</v>
+      <c r="A231" s="11" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="232" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A232" s="14" t="s">
-        <v>235</v>
+      <c r="A232" s="11" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="233" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A233" s="14" t="s">
-        <v>236</v>
+      <c r="A233" s="11" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="234" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A234" s="14" t="s">
-        <v>237</v>
+      <c r="A234" s="11" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="235" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A235" s="14" t="s">
-        <v>238</v>
+      <c r="A235" s="11" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="236" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A236" s="14" t="s">
-        <v>239</v>
+      <c r="A236" s="11" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="237" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A237" s="14" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="238" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A238" s="13" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="239" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A239" s="13" t="s">
-        <v>242</v>
+      <c r="A237" s="11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="238" s="2" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A238" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="239" s="2" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A239" s="7" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="240" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A240" s="14" t="s">
-        <v>243</v>
+      <c r="A240" s="11" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="241" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A241" s="14" t="s">
-        <v>244</v>
+      <c r="A241" s="11" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="242" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A242" s="14" t="s">
-        <v>245</v>
+      <c r="A242" s="11" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="243" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A243" s="14" t="s">
-        <v>246</v>
+      <c r="A243" s="11" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="244" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A244" s="14" t="s">
-        <v>247</v>
+      <c r="A244" s="11" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="245" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A245" s="14" t="s">
-        <v>248</v>
+      <c r="A245" s="11" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="246" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A246" s="14" t="s">
-        <v>249</v>
+      <c r="A246" s="11" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="247" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A247" s="14" t="s">
-        <v>250</v>
+      <c r="A247" s="11" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="248" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A248" s="14" t="s">
-        <v>251</v>
+      <c r="A248" s="11" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="249" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A249" s="14" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="250" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A250" s="13" t="s">
-        <v>253</v>
+      <c r="A249" s="11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="250" s="2" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A250" s="7" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="251" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A251" s="14" t="s">
-        <v>254</v>
+      <c r="A251" s="11" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="252" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A252" s="14" t="s">
-        <v>255</v>
+      <c r="A252" s="11" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="253" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A253" s="14" t="s">
-        <v>256</v>
+      <c r="A253" s="11" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="254" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A254" s="14" t="s">
-        <v>257</v>
+      <c r="A254" s="11" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="255" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A255" s="14" t="s">
-        <v>258</v>
+      <c r="A255" s="11" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="256" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A256" s="14" t="s">
-        <v>259</v>
+      <c r="A256" s="11" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="257" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A257" s="14" t="s">
-        <v>260</v>
+      <c r="A257" s="11" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="258" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A258" s="14" t="s">
-        <v>261</v>
+      <c r="A258" s="11" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/3.Understand/EE6427-热门考点分析.xlsx
+++ b/3.Understand/EE6427-热门考点分析.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="271">
   <si>
     <t>目录</t>
   </si>
@@ -550,16 +550,42 @@
     <t>4.1.3 卷积神经网络(CNN)</t>
   </si>
   <si>
+    <t>Q2：参数个数</t>
+  </si>
+  <si>
     <t>4.1.3.1 CNN架构</t>
   </si>
   <si>
+    <t>Q2:CNN，RNN，Transformer比较：视频分类</t>
+  </si>
+  <si>
     <t>4.1.3.2 卷积层</t>
   </si>
   <si>
+    <t>Q2：求卷积+滤波器F效果</t>
+  </si>
+  <si>
     <t>4.1.3.3 激活函数层</t>
   </si>
   <si>
-    <t>4.1.3.4 池化层</t>
+    <t>Q2：激活层后的输出</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4.1.3.4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>池化层</t>
+    </r>
+  </si>
+  <si>
+    <t>Q2：MAX池化层后的输出</t>
   </si>
   <si>
     <t>4.1.3.5 全连接层</t>
@@ -872,7 +898,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -884,6 +910,17 @@
       <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1396,137 +1433,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1564,6 +1601,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1880,15 +1923,15 @@
   <dimension ref="A1:E258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
+      <selection pane="bottomLeft" activeCell="A169" sqref="A185 A169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="44" style="6" customWidth="1"/>
-    <col min="2" max="2" width="23" style="6" customWidth="1"/>
+    <col min="2" max="2" width="40.9090909090909" style="6" customWidth="1"/>
     <col min="3" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -2681,529 +2724,550 @@
         <v>160</v>
       </c>
     </row>
-    <row r="154" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A154" s="11" t="s">
+    <row r="154" s="4" customFormat="1" ht="15.5" spans="1:2">
+      <c r="A154" s="9" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="155" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A155" s="11" t="s">
+      <c r="B154" s="10" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="156" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A156" s="11" t="s">
+    <row r="155" s="4" customFormat="1" ht="15.5" spans="1:2">
+      <c r="A155" s="9" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="157" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A157" s="11" t="s">
+      <c r="B155" s="10" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="158" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A158" s="11" t="s">
+    <row r="156" s="4" customFormat="1" ht="15.5" spans="1:2">
+      <c r="A156" s="9" t="s">
         <v>165</v>
+      </c>
+      <c r="B156" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="157" s="4" customFormat="1" ht="15.5" spans="1:2">
+      <c r="A157" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B157" s="14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="158" s="4" customFormat="1" ht="15.5" spans="1:2">
+      <c r="A158" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B158" s="14" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="159" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A159" s="11" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="160" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A160" s="11" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="161" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A161" s="11" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="162" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A162" s="11" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="163" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A163" s="11" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="164" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A164" s="11" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="165" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A165" s="11" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="166" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A166" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="167" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A167" s="11" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="168" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A168" s="11" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="169" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A169" s="11" t="s">
-        <v>176</v>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="169" s="4" customFormat="1" ht="15.5" spans="1:2">
+      <c r="A169" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B169" s="10" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="170" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A170" s="11" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="171" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A171" s="11" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="172" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A172" s="11" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="173" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A173" s="11" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="174" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A174" s="11" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="175" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A175" s="11" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="176" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A176" s="11" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="177" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A177" s="11" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="178" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A178" s="11" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="179" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A179" s="11" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="180" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A180" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="181" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A181" s="11" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="182" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A182" s="11" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="183" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A183" s="11" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="184" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A184" s="11" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="185" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A185" s="11" t="s">
-        <v>192</v>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="185" s="4" customFormat="1" ht="15.5" spans="1:2">
+      <c r="A185" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B185" s="10" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="186" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A186" s="11" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="187" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A187" s="11" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="188" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A188" s="11" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="189" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A189" s="11" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="190" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A190" s="11" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="191" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A191" s="11" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="192" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A192" s="11" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="193" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A193" s="11" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="194" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A194" s="11" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="195" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A195" s="11" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="196" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A196" s="11" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="197" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A197" s="11" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="198" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A198" s="11" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="199" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A199" s="11" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="200" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A200" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="201" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A201" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="202" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A202" s="11" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="203" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A203" s="11" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="204" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A204" s="11" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="205" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A205" s="11" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="206" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A206" s="11" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="207" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A207" s="11" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="208" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A208" s="11" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="209" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A209" s="11" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="210" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A210" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="211" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A211" s="11" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="212" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A212" s="11" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="213" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A213" s="11" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="214" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A214" s="11" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="215" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A215" s="11" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="216" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A216" s="11" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="217" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A217" s="11" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="218" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A218" s="11" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="219" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A219" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="220" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A220" s="11" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="221" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A221" s="11" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="222" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A222" s="11" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="223" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A223" s="11" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="224" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A224" s="11" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="225" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A225" s="11" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="226" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A226" s="11" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="227" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A227" s="11" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="228" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A228" s="11" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="229" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A229" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="230" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A230" s="11" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="231" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A231" s="11" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="232" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A232" s="11" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="233" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A233" s="11" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="234" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A234" s="11" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="235" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A235" s="11" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="236" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A236" s="11" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="237" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A237" s="11" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="238" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A238" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="239" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A239" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="240" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A240" s="11" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="241" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A241" s="11" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="242" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A242" s="11" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="243" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A243" s="11" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="244" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A244" s="11" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="245" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A245" s="11" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="246" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A246" s="11" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="247" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A247" s="11" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="248" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A248" s="11" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="249" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A249" s="11" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="250" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A250" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="251" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A251" s="11" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="252" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A252" s="11" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="253" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A253" s="11" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="254" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A254" s="11" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="255" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A255" s="11" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="256" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A256" s="11" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="257" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A257" s="11" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="258" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A258" s="11" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/3.Understand/EE6427-热门考点分析.xlsx
+++ b/3.Understand/EE6427-热门考点分析.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="276">
   <si>
     <t>目录</t>
   </si>
@@ -723,12 +723,21 @@
     <t>5.1.2对象检测方法</t>
   </si>
   <si>
+    <t>Q3：区分探测器类型</t>
+  </si>
+  <si>
     <t>5.1.2.1二级检测器</t>
   </si>
   <si>
+    <t>Q3：R-CNN</t>
+  </si>
+  <si>
     <t>5.1.2.2一级检测器</t>
   </si>
   <si>
+    <t>Q3：YOLOv7</t>
+  </si>
+  <si>
     <t>5.1.2.3轻量级的探测器</t>
   </si>
   <si>
@@ -738,6 +747,9 @@
     <t>5.1.3.1Swin Transform</t>
   </si>
   <si>
+    <t>Q3：自注意示意图 + 优点</t>
+  </si>
+  <si>
     <t>5.1.3.2检测Transform（DETR）</t>
   </si>
   <si>
@@ -748,6 +760,9 @@
   </si>
   <si>
     <t>5.2.2多目标跟踪（MOT）</t>
+  </si>
+  <si>
+    <t>Q3：MOT关键步骤</t>
   </si>
   <si>
     <t>5.2.2.1通过检测追踪</t>
@@ -1923,9 +1938,9 @@
   <dimension ref="A1:E258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A169" sqref="A185 A169"/>
+      <selection pane="bottomLeft" activeCell="B213" sqref="B213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -2990,284 +3005,308 @@
         <v>214</v>
       </c>
     </row>
-    <row r="203" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A203" s="11" t="s">
+    <row r="203" s="4" customFormat="1" ht="15.5" spans="1:2">
+      <c r="A203" s="9" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="204" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A204" s="11" t="s">
+      <c r="B203" s="10" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="205" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A205" s="11" t="s">
+    <row r="204" s="4" customFormat="1" ht="15.5" spans="1:2">
+      <c r="A204" s="9" t="s">
         <v>217</v>
+      </c>
+      <c r="B204" s="10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="205" s="4" customFormat="1" ht="15.5" spans="1:2">
+      <c r="A205" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B205" s="10" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="206" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A206" s="11" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="207" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A207" s="11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="208" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A208" s="11" t="s">
-        <v>220</v>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="208" s="4" customFormat="1" ht="15.5" spans="1:2">
+      <c r="A208" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B208" s="10" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="209" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A209" s="11" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="210" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A210" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="211" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A211" s="11" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="212" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A212" s="11" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="213" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A213" s="11" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="214" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A214" s="11" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="215" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A215" s="11" t="s">
         <v>227</v>
+      </c>
+    </row>
+    <row r="212" s="4" customFormat="1" ht="15.5" spans="1:2">
+      <c r="A212" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B212" s="10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="213" s="4" customFormat="1" ht="15.5" spans="1:2">
+      <c r="A213" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="B213" s="10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="214" s="4" customFormat="1" ht="15.5" spans="1:2">
+      <c r="A214" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B214" s="10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="215" s="4" customFormat="1" ht="15.5" spans="1:2">
+      <c r="A215" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B215" s="10" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="216" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A216" s="11" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="217" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A217" s="11" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="218" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A218" s="11" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="219" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A219" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="220" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A220" s="11" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="221" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A221" s="11" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="222" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A222" s="11" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="223" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A223" s="11" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="224" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A224" s="11" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="225" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A225" s="11" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="226" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A226" s="11" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="227" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A227" s="11" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="228" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A228" s="11" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="229" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A229" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="230" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A230" s="11" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="231" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A231" s="11" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="232" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A232" s="11" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="233" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A233" s="11" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="234" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A234" s="11" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="235" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A235" s="11" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="236" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A236" s="11" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="237" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A237" s="11" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="238" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A238" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="239" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A239" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="240" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A240" s="11" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="241" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A241" s="11" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="242" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A242" s="11" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="243" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A243" s="11" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="244" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A244" s="11" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="245" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A245" s="11" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="246" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A246" s="11" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="247" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A247" s="11" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="248" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A248" s="11" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="249" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A249" s="11" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="250" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A250" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="251" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A251" s="11" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="252" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A252" s="11" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="253" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A253" s="11" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="254" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A254" s="11" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="255" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A255" s="11" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="256" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A256" s="11" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="257" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A257" s="11" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="258" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A258" s="11" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/3.Understand/EE6427-热门考点分析.xlsx
+++ b/3.Understand/EE6427-热门考点分析.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="287">
   <si>
     <t>目录</t>
   </si>
@@ -170,6 +170,9 @@
     <t>2.5.1离散余弦变换(DCT)</t>
   </si>
   <si>
+    <t>Q1：重建错误</t>
+  </si>
+  <si>
     <t>2.5.2为什么DCT ?</t>
   </si>
   <si>
@@ -182,6 +185,9 @@
     <t>2.5.5矩阵DCT变换</t>
   </si>
   <si>
+    <t>Q1：DCT矩阵</t>
+  </si>
+  <si>
     <t>2.6.JPEG标准</t>
   </si>
   <si>
@@ -212,6 +218,9 @@
     <t>2.6.7.2JPEG DCT基函数</t>
   </si>
   <si>
+    <t>Q1：基函数之间的相似和区别</t>
+  </si>
+  <si>
     <t>2.6.7.3DCT中基的变化</t>
   </si>
   <si>
@@ -222,6 +231,9 @@
   </si>
   <si>
     <t>2.6.8.1量化表</t>
+  </si>
+  <si>
+    <t>Q1：合适的量化表</t>
   </si>
   <si>
     <t>2.6.8.2量化</t>
@@ -298,6 +310,9 @@
     <t>3.1.6色度二次抽样</t>
   </si>
   <si>
+    <t>Q4：MPEG-1视频压缩中色度子采样的目的</t>
+  </si>
+  <si>
     <t>3.2.MPEG标准</t>
   </si>
   <si>
@@ -337,6 +352,9 @@
     <t>3.2.2.3运动估计方法</t>
   </si>
   <si>
+    <t>Q4：Rank</t>
+  </si>
+  <si>
     <t>3.2.2.3.1完整的搜索</t>
   </si>
   <si>
@@ -382,6 +400,9 @@
     <t>3.2.4.2.2 p帧编码流程图</t>
   </si>
   <si>
+    <t>Q4：P frame diagram</t>
+  </si>
+  <si>
     <t>3.2.4.2.3 B帧编码流程图</t>
   </si>
   <si>
@@ -398,6 +419,9 @@
   </si>
   <si>
     <t>3.2.5.2.可伸缩性</t>
+  </si>
+  <si>
+    <t>Q4：MPEG-2可伸缩性</t>
   </si>
   <si>
     <t>3.2.5.3.可扩展性的类型</t>
@@ -645,6 +669,9 @@
     <t>4.2.4.1 LSTM架构</t>
   </si>
   <si>
+    <t>Q2：LSTM计算</t>
+  </si>
+  <si>
     <t>4.2.4.2 RNN 与 LSTM</t>
   </si>
   <si>
@@ -675,6 +702,9 @@
     <t>4.3.2.2变压器编码器</t>
   </si>
   <si>
+    <t>Q2：transformer encode介绍</t>
+  </si>
+  <si>
     <t>4.3.2.3 变压器解码器</t>
   </si>
   <si>
@@ -829,6 +859,9 @@
   </si>
   <si>
     <t>5.4.4.1时间偏移模块Temporal Shift Module (TSM)</t>
+  </si>
+  <si>
+    <t>Q3：良好的计算效率</t>
   </si>
   <si>
     <t>5.4.5 新兴/新方法</t>
@@ -913,7 +946,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -925,6 +958,12 @@
       <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1089,7 +1128,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1111,6 +1150,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1448,55 +1493,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1511,74 +1553,77 @@
     <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1615,13 +1660,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1938,16 +1989,18 @@
   <dimension ref="A1:E258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B213" sqref="B213"/>
+      <selection pane="bottomLeft" activeCell="C188" sqref="C188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="44" style="6" customWidth="1"/>
     <col min="2" max="2" width="40.9090909090909" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="6"/>
+    <col min="3" max="3" width="31.2727272727273" style="6" customWidth="1"/>
+    <col min="4" max="4" width="42.9090909090909" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -2126,1187 +2179,1230 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A32" s="11" t="s">
+    <row r="32" s="4" customFormat="1" ht="15.5" spans="1:3">
+      <c r="A32" s="9" t="s">
         <v>38</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="33" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A33" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A34" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A35" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A36" s="11" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="36" s="4" customFormat="1" ht="15.5" spans="1:3">
+      <c r="A36" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="37" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A37" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A38" s="11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A39" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A40" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A41" s="11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" s="5" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A42" s="12" t="s">
-        <v>48</v>
+      <c r="A42" s="13" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="43" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A43" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A44" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A45" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A46" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="47" s="4" customFormat="1" ht="15.5" spans="1:1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" s="4" customFormat="1" ht="15.5" spans="1:3">
+      <c r="A46" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A47" s="11" t="s">
-        <v>53</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B47" s="14"/>
     </row>
     <row r="48" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A48" s="11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A49" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="50" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A50" s="11" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" s="4" customFormat="1" ht="15.5" spans="1:3">
+      <c r="A50" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="51" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A51" s="11" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A52" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A53" s="11" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A54" s="11" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A55" s="11" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A56" s="11" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A57" s="11" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A58" s="11" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A59" s="11" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A60" s="11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A61" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A62" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A63" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A64" s="11" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A65" s="11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" s="5" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A66" s="12" t="s">
-        <v>73</v>
+      <c r="A66" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="67" s="5" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A67" s="12" t="s">
-        <v>74</v>
+      <c r="A67" s="13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="68" s="5" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A68" s="12" t="s">
-        <v>75</v>
+      <c r="A68" s="13" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="69" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A69" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="70" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A70" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" s="4" customFormat="1" ht="15.5" spans="1:2">
+      <c r="A70" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="71" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A71" s="7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A72" s="11" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A73" s="11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A74" s="11" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A75" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A76" s="11" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A77" s="11" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A78" s="11" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A79" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A80" s="11" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A81" s="11" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A82" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="83" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A83" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="84" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A84" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="85" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A85" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="86" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A86" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="83" s="4" customFormat="1" ht="15.5" spans="1:2">
+      <c r="A83" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="84" s="4" customFormat="1" ht="15.5" spans="1:2">
+      <c r="A84" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="85" s="4" customFormat="1" ht="15.5" spans="1:2">
+      <c r="A85" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="86" s="4" customFormat="1" ht="15.5" spans="1:2">
+      <c r="A86" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="87" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A87" s="11" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A88" s="11" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A89" s="11" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A90" s="11" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A91" s="11" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A92" s="11" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A93" s="11" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A94" s="11" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A95" s="11" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A96" s="11" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A97" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="98" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A98" s="11" t="s">
-        <v>105</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="98" s="4" customFormat="1" ht="15.5" spans="1:2">
+      <c r="A98" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="99" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A99" s="11" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A100" s="11" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A101" s="11" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A102" s="11" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A103" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="104" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A104" s="11" t="s">
-        <v>111</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="104" s="4" customFormat="1" ht="15.5" spans="1:2">
+      <c r="A104" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="105" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A105" s="11" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A106" s="11" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A107" s="11" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="108" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A108" s="11" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="109" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A109" s="11" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="110" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A110" s="11" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="111" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A111" s="11" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="112" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A112" s="11" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="113" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A113" s="11" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="114" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A114" s="11" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="115" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A115" s="11" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A116" s="7" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="117" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A117" s="11" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="118" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A118" s="11" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="119" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A119" s="11" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="120" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A120" s="11" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="121" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A121" s="11" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="122" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A122" s="11" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="123" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A123" s="11" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="124" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A124" s="11" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="125" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A125" s="11" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="126" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A126" s="11" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="127" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A127" s="11" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="128" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A128" s="11" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="129" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A129" s="11" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="130" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A130" s="11" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="131" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A131" s="11" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="132" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A132" s="11" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="133" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A133" s="11" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="134" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A134" s="11" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="135" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A135" s="11" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="136" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A136" s="11" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="137" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A137" s="11" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="138" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A138" s="11" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="139" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A139" s="7" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="140" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A140" s="11" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="141" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A141" s="11" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="142" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A142" s="7" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="143" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A143" s="7" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="144" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A144" s="11" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="145" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A145" s="11" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="146" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A146" s="11" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="147" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A147" s="11" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="148" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A148" s="11" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="149" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A149" s="11" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="150" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A150" s="11" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="151" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A151" s="11" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="152" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A152" s="11" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="153" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A153" s="11" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="154" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A154" s="9" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="155" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A155" s="9" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="156" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A156" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B156" s="13" t="s">
-        <v>166</v>
+        <v>173</v>
+      </c>
+      <c r="B156" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="157" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A157" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="B157" s="14" t="s">
-        <v>168</v>
+        <v>175</v>
+      </c>
+      <c r="B157" s="16" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="158" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A158" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="B158" s="14" t="s">
-        <v>170</v>
+        <v>177</v>
+      </c>
+      <c r="B158" s="16" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="159" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A159" s="11" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="160" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A160" s="11" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="161" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A161" s="11" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="162" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A162" s="11" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="163" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A163" s="11" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="164" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A164" s="11" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="165" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A165" s="11" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="166" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A166" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="167" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A167" s="11" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="168" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A168" s="11" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="169" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A169" s="9" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="170" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A170" s="11" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="171" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A171" s="11" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="172" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A172" s="11" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="173" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A173" s="11" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="174" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A174" s="11" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="175" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A175" s="11" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="176" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A176" s="11" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="177" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A177" s="11" t="s">
-        <v>189</v>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="177" s="4" customFormat="1" ht="15.5" spans="1:3">
+      <c r="A177" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C177" s="10" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="178" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A178" s="11" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
     </row>
     <row r="179" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A179" s="11" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
     </row>
     <row r="180" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A180" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="181" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A181" s="11" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
     </row>
     <row r="182" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A182" s="11" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
     </row>
     <row r="183" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A183" s="11" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
     </row>
     <row r="184" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A184" s="11" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
     </row>
     <row r="185" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A185" s="9" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="186" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A186" s="11" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="187" s="4" customFormat="1" ht="15.5" spans="1:1">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="187" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A187" s="11" t="s">
-        <v>199</v>
+        <v>208</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="188" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A188" s="11" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="189" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A189" s="11" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
     <row r="190" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A190" s="11" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
     </row>
     <row r="191" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A191" s="11" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="192" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A192" s="11" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
     </row>
     <row r="193" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A193" s="11" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
     </row>
     <row r="194" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A194" s="11" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
     </row>
     <row r="195" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A195" s="11" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="196" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A196" s="11" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
     </row>
     <row r="197" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A197" s="11" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
     </row>
     <row r="198" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A198" s="11" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
     </row>
     <row r="199" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A199" s="11" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="200" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A200" s="7" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="201" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A201" s="7" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="202" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A202" s="11" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="203" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A203" s="9" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="B203" s="10" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
     </row>
     <row r="204" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A204" s="9" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
     </row>
     <row r="205" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A205" s="9" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="206" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A206" s="11" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
     </row>
     <row r="207" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A207" s="11" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="208" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A208" s="9" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="B208" s="10" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
     </row>
     <row r="209" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A209" s="11" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="210" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A210" s="7" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
     </row>
     <row r="211" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A211" s="11" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
     </row>
     <row r="212" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A212" s="9" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="213" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A213" s="9" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="214" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A214" s="9" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="B214" s="10" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="215" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A215" s="9" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="B215" s="10" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="216" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A216" s="11" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
     </row>
     <row r="217" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A217" s="11" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
     <row r="218" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A218" s="11" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="219" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A219" s="7" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
     </row>
     <row r="220" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A220" s="11" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="221" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A221" s="11" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
     </row>
     <row r="222" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A222" s="11" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="223" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A223" s="11" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
     </row>
     <row r="224" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A224" s="11" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
     </row>
     <row r="225" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A225" s="11" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
     </row>
     <row r="226" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A226" s="11" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
     </row>
     <row r="227" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A227" s="11" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
     </row>
     <row r="228" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A228" s="11" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="229" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A229" s="7" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
     </row>
     <row r="230" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A230" s="11" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
     </row>
     <row r="231" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A231" s="11" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
     </row>
     <row r="232" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A232" s="11" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="233" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A233" s="11" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="234" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A234" s="11" t="s">
-        <v>251</v>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="234" s="4" customFormat="1" ht="15.5" spans="1:2">
+      <c r="A234" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B234" s="10" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="235" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A235" s="11" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
     </row>
     <row r="236" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A236" s="11" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
     </row>
     <row r="237" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A237" s="11" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
     </row>
     <row r="238" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A238" s="7" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
     </row>
     <row r="239" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A239" s="7" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
     </row>
     <row r="240" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A240" s="11" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
     </row>
     <row r="241" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A241" s="11" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
     </row>
     <row r="242" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A242" s="11" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
     </row>
     <row r="243" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A243" s="11" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
     </row>
     <row r="244" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A244" s="11" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
     </row>
     <row r="245" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A245" s="11" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
     </row>
     <row r="246" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A246" s="11" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
     </row>
     <row r="247" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A247" s="11" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
     </row>
     <row r="248" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A248" s="11" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
     </row>
     <row r="249" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A249" s="11" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
     </row>
     <row r="250" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A250" s="7" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
     </row>
     <row r="251" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A251" s="11" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
     </row>
     <row r="252" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A252" s="11" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
     </row>
     <row r="253" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A253" s="11" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
     </row>
     <row r="254" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A254" s="11" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
     </row>
     <row r="255" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A255" s="11" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
     </row>
     <row r="256" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A256" s="11" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
     </row>
     <row r="257" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A257" s="11" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
     </row>
     <row r="258" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A258" s="11" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/3.Understand/EE6427-热门考点分析.xlsx
+++ b/3.Understand/EE6427-热门考点分析.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="295">
   <si>
     <t>目录</t>
   </si>
@@ -116,6 +116,9 @@
     <t>Q1：霍夫曼编码</t>
   </si>
   <si>
+    <t>Q4：霍夫曼编码</t>
+  </si>
+  <si>
     <t>2.3.图像和视频压缩</t>
   </si>
   <si>
@@ -182,10 +185,10 @@
     <t>2.5.4传统DCT变换</t>
   </si>
   <si>
+    <t>Q1：DCT矩阵</t>
+  </si>
+  <si>
     <t>2.5.5矩阵DCT变换</t>
-  </si>
-  <si>
-    <t>Q1：DCT矩阵</t>
   </si>
   <si>
     <t>2.6.JPEG标准</t>
@@ -298,6 +301,9 @@
     <t>3.1.3视频压缩的主要思想</t>
   </si>
   <si>
+    <t>Q3：同一视频编码标准的不同编码器产品（硬件或软件）编码性能不同的原因</t>
+  </si>
+  <si>
     <t>3.1.3.1运动估计与补偿</t>
   </si>
   <si>
@@ -331,10 +337,19 @@
     <t>3.2.1.4i帧，p帧，b帧</t>
   </si>
   <si>
+    <t>Q3：编码效率rank</t>
+  </si>
+  <si>
     <t>3.2.1.5MPEG-1显示和编码顺序</t>
   </si>
   <si>
+    <t>Q3：帧的解码器顺序</t>
+  </si>
+  <si>
     <t>3.2.1.6图片组的GOP问题</t>
+  </si>
+  <si>
+    <t>Q3：不适合使用太多的b帧</t>
   </si>
   <si>
     <t>3.2.2运动估计与补偿</t>
@@ -741,6 +756,9 @@
     <t>4.3.3 ViT</t>
   </si>
   <si>
+    <t>Q2：位置嵌入功能</t>
+  </si>
+  <si>
     <t>5.视频分析与理解</t>
   </si>
   <si>
@@ -780,6 +798,9 @@
     <t>Q3：自注意示意图 + 优点</t>
   </si>
   <si>
+    <t>Q2：swin优势</t>
+  </si>
+  <si>
     <t>5.1.3.2检测Transform（DETR）</t>
   </si>
   <si>
@@ -805,6 +826,9 @@
   </si>
   <si>
     <t>5.2.2.4 Deep SORT</t>
+  </si>
+  <si>
+    <t>Q3：两种主要方法及其区别</t>
   </si>
   <si>
     <t>5.2.3MOT中的新方法</t>
@@ -1128,7 +1152,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1161,7 +1185,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1499,7 +1535,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1523,16 +1559,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1541,89 +1577,89 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1657,10 +1693,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1673,6 +1715,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1989,9 +2034,9 @@
   <dimension ref="A1:E258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C188" sqref="C188"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -2000,7 +2045,8 @@
     <col min="2" max="2" width="40.9090909090909" style="6" customWidth="1"/>
     <col min="3" max="3" width="31.2727272727273" style="6" customWidth="1"/>
     <col min="4" max="4" width="42.9090909090909" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="6"/>
+    <col min="5" max="5" width="40.8181818181818" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -2086,125 +2132,131 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" s="3" customFormat="1" ht="15.5" spans="1:2">
-      <c r="A14" s="9" t="s">
+    <row r="14" s="3" customFormat="1" ht="15.5" spans="1:3">
+      <c r="A14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="12" t="s">
         <v>20</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A15" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A16" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A17" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A18" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A19" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A20" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A21" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A22" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A23" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A24" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A25" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A26" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A27" s="11" t="s">
-        <v>33</v>
+      <c r="A27" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="28" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A28" s="11" t="s">
-        <v>34</v>
+      <c r="A28" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="29" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A29" s="11" t="s">
-        <v>35</v>
+      <c r="A29" s="13" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="30" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A30" s="11" t="s">
-        <v>36</v>
+      <c r="A30" s="13" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A31" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A32" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A33" s="11" t="s">
-        <v>40</v>
+      <c r="A33" s="13" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="34" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A34" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A34" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" s="4" customFormat="1" ht="15.5" spans="1:4">
       <c r="A35" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="36" s="4" customFormat="1" ht="15.5" spans="1:3">
-      <c r="A36" s="12" t="s">
-        <v>43</v>
+      <c r="A36" s="14" t="s">
+        <v>45</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>44</v>
@@ -2212,1197 +2264,1221 @@
     </row>
     <row r="37" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A37" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A38" s="11" t="s">
-        <v>46</v>
+      <c r="A38" s="13" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="39" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A39" s="11" t="s">
-        <v>47</v>
+      <c r="A39" s="13" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="40" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A40" s="11" t="s">
-        <v>48</v>
+      <c r="A40" s="13" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="41" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A41" s="11" t="s">
-        <v>49</v>
+      <c r="A41" s="13" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="42" s="5" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A42" s="13" t="s">
-        <v>50</v>
+      <c r="A42" s="15" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="43" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A43" s="11" t="s">
-        <v>51</v>
+      <c r="A43" s="13" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="44" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A44" s="11" t="s">
-        <v>52</v>
+      <c r="A44" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="45" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A45" s="11" t="s">
-        <v>53</v>
+      <c r="A45" s="13" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="46" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A46" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" s="4" customFormat="1" ht="15.5" spans="1:2">
-      <c r="A47" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B47" s="14"/>
+      <c r="A47" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="16"/>
     </row>
     <row r="48" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A48" s="11" t="s">
-        <v>57</v>
+      <c r="A48" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="49" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A49" s="11" t="s">
-        <v>58</v>
+      <c r="A49" s="13" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="50" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A50" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A51" s="11" t="s">
-        <v>61</v>
+      <c r="A51" s="13" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="52" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A52" s="11" t="s">
-        <v>62</v>
+      <c r="A52" s="13" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="53" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A53" s="11" t="s">
-        <v>63</v>
+      <c r="A53" s="13" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="54" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A54" s="11" t="s">
-        <v>64</v>
+      <c r="A54" s="13" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="55" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A55" s="11" t="s">
-        <v>65</v>
+      <c r="A55" s="13" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="56" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A56" s="11" t="s">
-        <v>66</v>
+      <c r="A56" s="13" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="57" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A57" s="11" t="s">
-        <v>67</v>
+      <c r="A57" s="13" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="58" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A58" s="11" t="s">
-        <v>68</v>
+      <c r="A58" s="13" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="59" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A59" s="11" t="s">
-        <v>69</v>
+      <c r="A59" s="13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="60" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A60" s="11" t="s">
-        <v>70</v>
+      <c r="A60" s="13" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="61" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A61" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A62" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A63" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A64" s="11" t="s">
-        <v>75</v>
+      <c r="A64" s="13" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="65" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A65" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="66" s="5" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A66" s="13" t="s">
+      <c r="A65" s="13" t="s">
         <v>77</v>
       </c>
     </row>
+    <row r="66" s="5" customFormat="1" ht="15.5" spans="1:3">
+      <c r="A66" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
     <row r="67" s="5" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A67" s="13" t="s">
-        <v>78</v>
+      <c r="A67" s="15" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="68" s="5" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A68" s="13" t="s">
-        <v>79</v>
+      <c r="A68" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="69" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A69" s="11" t="s">
-        <v>80</v>
+      <c r="A69" s="13" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="70" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A70" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A71" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A72" s="11" t="s">
-        <v>84</v>
+      <c r="A72" s="13" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="73" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A73" s="11" t="s">
-        <v>85</v>
+      <c r="A73" s="13" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="74" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A74" s="11" t="s">
-        <v>86</v>
+      <c r="A74" s="13" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="75" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A75" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="76" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A76" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="77" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A77" s="11" t="s">
+      <c r="A75" s="13" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="78" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A78" s="11" t="s">
+    <row r="76" s="4" customFormat="1" ht="15.5" spans="1:3">
+      <c r="A76" s="9" t="s">
         <v>90</v>
       </c>
+      <c r="C76" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="77" s="4" customFormat="1" ht="15.5" spans="1:3">
+      <c r="A77" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="78" s="4" customFormat="1" ht="15.5" spans="1:3">
+      <c r="A78" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="79" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A79" s="11" t="s">
-        <v>91</v>
+      <c r="A79" s="13" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="80" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A80" s="11" t="s">
-        <v>92</v>
+      <c r="A80" s="13" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="81" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A81" s="11" t="s">
-        <v>93</v>
+      <c r="A81" s="13" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="82" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A82" s="11" t="s">
-        <v>94</v>
+      <c r="A82" s="13" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="83" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A83" s="9" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A84" s="9" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A85" s="9" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A86" s="9" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A87" s="11" t="s">
-        <v>100</v>
+      <c r="A87" s="13" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="88" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A88" s="11" t="s">
-        <v>101</v>
+      <c r="A88" s="13" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="89" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A89" s="11" t="s">
-        <v>102</v>
+      <c r="A89" s="13" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="90" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A90" s="11" t="s">
-        <v>103</v>
+      <c r="A90" s="13" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="91" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A91" s="11" t="s">
-        <v>104</v>
+      <c r="A91" s="13" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="92" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A92" s="11" t="s">
-        <v>105</v>
+      <c r="A92" s="13" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="93" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A93" s="11" t="s">
-        <v>106</v>
+      <c r="A93" s="13" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="94" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A94" s="11" t="s">
-        <v>107</v>
+      <c r="A94" s="13" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="95" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A95" s="11" t="s">
-        <v>108</v>
+      <c r="A95" s="13" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="96" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A96" s="11" t="s">
-        <v>109</v>
+      <c r="A96" s="13" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="97" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A97" s="11" t="s">
-        <v>110</v>
+      <c r="A97" s="13" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="98" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A98" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="99" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A99" s="11" t="s">
-        <v>113</v>
+      <c r="A99" s="13" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="100" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A100" s="11" t="s">
-        <v>114</v>
+      <c r="A100" s="13" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="101" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A101" s="11" t="s">
-        <v>115</v>
+      <c r="A101" s="13" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="102" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A102" s="11" t="s">
-        <v>116</v>
+      <c r="A102" s="13" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="103" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A103" s="11" t="s">
-        <v>117</v>
+      <c r="A103" s="13" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="104" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A104" s="9" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="105" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A105" s="11" t="s">
-        <v>120</v>
+      <c r="A105" s="13" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="106" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A106" s="11" t="s">
-        <v>121</v>
+      <c r="A106" s="13" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="107" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A107" s="11" t="s">
-        <v>122</v>
+      <c r="A107" s="13" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="108" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A108" s="11" t="s">
-        <v>123</v>
+      <c r="A108" s="13" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="109" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A109" s="11" t="s">
-        <v>124</v>
+      <c r="A109" s="13" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="110" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A110" s="11" t="s">
-        <v>125</v>
+      <c r="A110" s="13" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="111" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A111" s="11" t="s">
-        <v>126</v>
+      <c r="A111" s="13" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="112" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A112" s="11" t="s">
-        <v>127</v>
+      <c r="A112" s="13" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="113" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A113" s="11" t="s">
-        <v>128</v>
+      <c r="A113" s="13" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="114" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A114" s="11" t="s">
-        <v>129</v>
+      <c r="A114" s="13" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="115" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A115" s="11" t="s">
-        <v>130</v>
+      <c r="A115" s="13" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="116" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A116" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="117" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A117" s="11" t="s">
-        <v>132</v>
+      <c r="A117" s="13" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="118" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A118" s="11" t="s">
-        <v>133</v>
+      <c r="A118" s="13" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="119" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A119" s="11" t="s">
-        <v>134</v>
+      <c r="A119" s="13" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="120" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A120" s="11" t="s">
-        <v>135</v>
+      <c r="A120" s="13" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="121" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A121" s="11" t="s">
-        <v>136</v>
+      <c r="A121" s="13" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="122" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A122" s="11" t="s">
-        <v>137</v>
+      <c r="A122" s="13" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="123" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A123" s="11" t="s">
-        <v>138</v>
+      <c r="A123" s="13" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="124" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A124" s="11" t="s">
-        <v>139</v>
+      <c r="A124" s="13" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="125" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A125" s="11" t="s">
-        <v>140</v>
+      <c r="A125" s="13" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="126" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A126" s="11" t="s">
-        <v>141</v>
+      <c r="A126" s="13" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="127" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A127" s="11" t="s">
-        <v>142</v>
+      <c r="A127" s="13" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="128" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A128" s="11" t="s">
-        <v>143</v>
+      <c r="A128" s="13" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="129" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A129" s="11" t="s">
-        <v>144</v>
+      <c r="A129" s="13" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="130" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A130" s="11" t="s">
-        <v>145</v>
+      <c r="A130" s="13" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="131" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A131" s="11" t="s">
-        <v>146</v>
+      <c r="A131" s="13" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="132" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A132" s="11" t="s">
-        <v>147</v>
+      <c r="A132" s="13" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="133" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A133" s="11" t="s">
-        <v>148</v>
+      <c r="A133" s="13" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="134" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A134" s="11" t="s">
-        <v>149</v>
+      <c r="A134" s="13" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="135" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A135" s="11" t="s">
-        <v>150</v>
+      <c r="A135" s="13" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="136" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A136" s="11" t="s">
-        <v>151</v>
+      <c r="A136" s="13" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="137" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A137" s="11" t="s">
-        <v>152</v>
+      <c r="A137" s="13" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="138" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A138" s="11" t="s">
-        <v>153</v>
+      <c r="A138" s="13" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="139" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A139" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="140" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A140" s="11" t="s">
-        <v>155</v>
+      <c r="A140" s="13" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="141" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A141" s="11" t="s">
-        <v>156</v>
+      <c r="A141" s="13" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="142" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A142" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="143" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A143" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="144" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A144" s="11" t="s">
-        <v>159</v>
+      <c r="A144" s="13" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="145" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A145" s="11" t="s">
-        <v>160</v>
+      <c r="A145" s="13" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="146" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A146" s="11" t="s">
-        <v>161</v>
+      <c r="A146" s="13" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="147" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A147" s="11" t="s">
-        <v>162</v>
+      <c r="A147" s="13" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="148" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A148" s="11" t="s">
-        <v>163</v>
+      <c r="A148" s="13" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="149" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A149" s="11" t="s">
-        <v>164</v>
+      <c r="A149" s="13" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="150" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A150" s="11" t="s">
-        <v>165</v>
+      <c r="A150" s="13" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="151" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A151" s="11" t="s">
-        <v>166</v>
+      <c r="A151" s="13" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="152" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A152" s="11" t="s">
-        <v>167</v>
+      <c r="A152" s="13" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="153" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A153" s="11" t="s">
-        <v>168</v>
+      <c r="A153" s="13" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="154" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A154" s="9" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="155" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A155" s="9" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="156" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A156" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="B156" s="15" t="s">
-        <v>174</v>
+        <v>178</v>
+      </c>
+      <c r="B156" s="17" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="157" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A157" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="B157" s="16" t="s">
-        <v>176</v>
+        <v>180</v>
+      </c>
+      <c r="B157" s="18" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="158" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A158" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="B158" s="16" t="s">
-        <v>178</v>
+        <v>182</v>
+      </c>
+      <c r="B158" s="18" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="159" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A159" s="11" t="s">
-        <v>179</v>
+      <c r="A159" s="13" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="160" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A160" s="11" t="s">
-        <v>180</v>
+      <c r="A160" s="13" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="161" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A161" s="11" t="s">
-        <v>181</v>
+      <c r="A161" s="13" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="162" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A162" s="11" t="s">
-        <v>182</v>
+      <c r="A162" s="13" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="163" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A163" s="11" t="s">
-        <v>183</v>
+      <c r="A163" s="13" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="164" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A164" s="11" t="s">
-        <v>184</v>
+      <c r="A164" s="13" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="165" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A165" s="11" t="s">
-        <v>185</v>
+      <c r="A165" s="13" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="166" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A166" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="167" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A167" s="11" t="s">
-        <v>187</v>
+      <c r="A167" s="13" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="168" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A168" s="11" t="s">
-        <v>188</v>
+      <c r="A168" s="13" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="169" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A169" s="9" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="170" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A170" s="11" t="s">
-        <v>190</v>
+      <c r="A170" s="13" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="171" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A171" s="11" t="s">
-        <v>191</v>
+      <c r="A171" s="13" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="172" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A172" s="11" t="s">
-        <v>192</v>
+      <c r="A172" s="13" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="173" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A173" s="11" t="s">
-        <v>193</v>
+      <c r="A173" s="13" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="174" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A174" s="11" t="s">
-        <v>194</v>
+      <c r="A174" s="13" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="175" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A175" s="11" t="s">
-        <v>195</v>
+      <c r="A175" s="13" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="176" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A176" s="11" t="s">
-        <v>196</v>
+      <c r="A176" s="13" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="177" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A177" s="9" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="178" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A178" s="11" t="s">
-        <v>199</v>
+      <c r="A178" s="13" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="179" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A179" s="11" t="s">
-        <v>200</v>
+      <c r="A179" s="13" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="180" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A180" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="181" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A181" s="11" t="s">
-        <v>202</v>
+      <c r="A181" s="13" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="182" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A182" s="11" t="s">
-        <v>203</v>
+      <c r="A182" s="13" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="183" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A183" s="11" t="s">
-        <v>204</v>
+      <c r="A183" s="13" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="184" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A184" s="11" t="s">
-        <v>205</v>
+      <c r="A184" s="13" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="185" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A185" s="9" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="186" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A186" s="11" t="s">
-        <v>207</v>
+      <c r="A186" s="13" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="187" s="4" customFormat="1" ht="15.5" spans="1:3">
-      <c r="A187" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="C187" s="4" t="s">
-        <v>209</v>
+      <c r="A187" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C187" s="10" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="188" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A188" s="11" t="s">
-        <v>210</v>
+      <c r="A188" s="13" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="189" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A189" s="11" t="s">
-        <v>211</v>
+      <c r="A189" s="13" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="190" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A190" s="11" t="s">
-        <v>212</v>
+      <c r="A190" s="13" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="191" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A191" s="11" t="s">
-        <v>213</v>
+      <c r="A191" s="13" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="192" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A192" s="11" t="s">
-        <v>214</v>
+      <c r="A192" s="13" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="193" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A193" s="11" t="s">
-        <v>215</v>
+      <c r="A193" s="13" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="194" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A194" s="11" t="s">
-        <v>216</v>
+      <c r="A194" s="13" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="195" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A195" s="11" t="s">
-        <v>217</v>
+      <c r="A195" s="13" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="196" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A196" s="11" t="s">
-        <v>218</v>
+      <c r="A196" s="13" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="197" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A197" s="11" t="s">
-        <v>219</v>
+      <c r="A197" s="13" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="198" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A198" s="11" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="199" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A199" s="11" t="s">
-        <v>221</v>
+      <c r="A198" s="13" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="199" s="4" customFormat="1" ht="15.5" spans="1:3">
+      <c r="A199" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C199" s="10" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="200" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A200" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="201" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A201" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="202" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A202" s="11" t="s">
-        <v>224</v>
+      <c r="A202" s="13" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="203" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A203" s="9" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B203" s="10" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="204" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A204" s="9" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="205" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A205" s="9" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="206" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A206" s="11" t="s">
-        <v>231</v>
+      <c r="A206" s="13" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="207" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A207" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="208" s="4" customFormat="1" ht="15.5" spans="1:2">
-      <c r="A208" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="B208" s="10" t="s">
-        <v>234</v>
+      <c r="A207" s="13" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="208" s="4" customFormat="1" ht="15.5" spans="1:3">
+      <c r="A208" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B208" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C208" s="19" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="209" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A209" s="11" t="s">
-        <v>235</v>
+      <c r="A209" s="13" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="210" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A210" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="211" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A211" s="11" t="s">
-        <v>237</v>
+      <c r="A211" s="13" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="212" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A212" s="9" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
     </row>
     <row r="213" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A213" s="9" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
     </row>
     <row r="214" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A214" s="9" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B214" s="10" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
     </row>
     <row r="215" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A215" s="9" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B215" s="10" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="216" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A216" s="11" t="s">
-        <v>243</v>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="216" s="4" customFormat="1" ht="15.5" spans="1:3">
+      <c r="A216" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C216" s="10" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="217" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A217" s="11" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="218" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A218" s="11" t="s">
-        <v>245</v>
+      <c r="A217" s="13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="218" s="4" customFormat="1" ht="15.5" spans="1:3">
+      <c r="A218" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C218" s="10" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="219" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A219" s="7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
     </row>
     <row r="220" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A220" s="11" t="s">
-        <v>247</v>
+      <c r="A220" s="13" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="221" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A221" s="11" t="s">
-        <v>248</v>
+      <c r="A221" s="13" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="222" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A222" s="11" t="s">
-        <v>249</v>
+      <c r="A222" s="13" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="223" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A223" s="11" t="s">
-        <v>250</v>
+      <c r="A223" s="13" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="224" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A224" s="11" t="s">
-        <v>251</v>
+      <c r="A224" s="13" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="225" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A225" s="11" t="s">
-        <v>252</v>
+      <c r="A225" s="13" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="226" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A226" s="11" t="s">
-        <v>253</v>
+      <c r="A226" s="13" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="227" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A227" s="11" t="s">
-        <v>254</v>
+      <c r="A227" s="13" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="228" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A228" s="11" t="s">
-        <v>255</v>
+      <c r="A228" s="13" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="229" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A229" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
     </row>
     <row r="230" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A230" s="11" t="s">
-        <v>257</v>
+      <c r="A230" s="13" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="231" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A231" s="11" t="s">
-        <v>258</v>
+      <c r="A231" s="13" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="232" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A232" s="11" t="s">
-        <v>259</v>
+      <c r="A232" s="13" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="233" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A233" s="11" t="s">
-        <v>260</v>
+      <c r="A233" s="13" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="234" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A234" s="9" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B234" s="10" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="235" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A235" s="11" t="s">
-        <v>263</v>
+      <c r="A235" s="13" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="236" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A236" s="11" t="s">
-        <v>264</v>
+      <c r="A236" s="13" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="237" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A237" s="11" t="s">
-        <v>265</v>
+      <c r="A237" s="13" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="238" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A238" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="239" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A239" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="240" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A240" s="11" t="s">
-        <v>268</v>
+      <c r="A240" s="13" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="241" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A241" s="11" t="s">
-        <v>269</v>
+      <c r="A241" s="13" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="242" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A242" s="11" t="s">
-        <v>270</v>
+      <c r="A242" s="13" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="243" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A243" s="11" t="s">
-        <v>271</v>
+      <c r="A243" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="244" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A244" s="11" t="s">
-        <v>272</v>
+      <c r="A244" s="13" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="245" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A245" s="11" t="s">
-        <v>273</v>
+      <c r="A245" s="13" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="246" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A246" s="11" t="s">
-        <v>274</v>
+      <c r="A246" s="13" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="247" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A247" s="11" t="s">
-        <v>275</v>
+      <c r="A247" s="13" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="248" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A248" s="11" t="s">
-        <v>276</v>
+      <c r="A248" s="13" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="249" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A249" s="11" t="s">
-        <v>277</v>
+      <c r="A249" s="13" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="250" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A250" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
     </row>
     <row r="251" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A251" s="11" t="s">
-        <v>279</v>
+      <c r="A251" s="13" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="252" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A252" s="11" t="s">
-        <v>280</v>
+      <c r="A252" s="13" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="253" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A253" s="11" t="s">
-        <v>281</v>
+      <c r="A253" s="13" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="254" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A254" s="11" t="s">
-        <v>282</v>
+      <c r="A254" s="13" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="255" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A255" s="11" t="s">
-        <v>283</v>
+      <c r="A255" s="13" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="256" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A256" s="11" t="s">
-        <v>284</v>
+      <c r="A256" s="13" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="257" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A257" s="11" t="s">
-        <v>285</v>
+      <c r="A257" s="13" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="258" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A258" s="11" t="s">
-        <v>286</v>
+      <c r="A258" s="13" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/3.Understand/EE6427-热门考点分析.xlsx
+++ b/3.Understand/EE6427-热门考点分析.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="296">
   <si>
     <t>目录</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>2.6.4 JPEG编码器</t>
+  </si>
+  <si>
+    <t>Q1：JPEG编码器框图</t>
   </si>
   <si>
     <t>2.6.5 图像分割</t>
@@ -2034,9 +2037,9 @@
   <dimension ref="A1:E258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
+      <selection pane="bottomLeft" activeCell="D42" sqref="A41 C41 D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -2247,7 +2250,7 @@
       </c>
     </row>
     <row r="35" s="4" customFormat="1" ht="15.5" spans="1:4">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="9" t="s">
         <v>43</v>
       </c>
       <c r="D35" s="10" t="s">
@@ -2282,1203 +2285,1206 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A41" s="13" t="s">
+    <row r="41" s="4" customFormat="1" ht="15.5" spans="1:3">
+      <c r="A41" s="9" t="s">
         <v>50</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="42" s="5" customFormat="1" ht="15.5" spans="1:1">
       <c r="A42" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A43" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A44" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A45" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A46" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A47" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B47" s="16"/>
     </row>
     <row r="48" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A48" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A49" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A50" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A51" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A52" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A53" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A54" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A55" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A56" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A57" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A58" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A59" s="13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A60" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A61" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A62" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A63" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A64" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A65" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" s="5" customFormat="1" ht="15.5" spans="1:3">
       <c r="A66" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" s="5" customFormat="1" ht="15.5" spans="1:1">
       <c r="A67" s="15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" s="5" customFormat="1" ht="15.5" spans="1:1">
       <c r="A68" s="15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A69" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A70" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A71" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A72" s="13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A73" s="13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A74" s="13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A75" s="13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A76" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A77" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A78" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A79" s="13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A80" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A81" s="13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A82" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A83" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="84" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A84" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B84" s="10" t="s">
         <v>102</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="85" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A85" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A86" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A87" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A88" s="13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A89" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="90" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A90" s="13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="91" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A91" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="92" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A92" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="93" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A93" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="94" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A94" s="13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="95" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A95" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="96" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A96" s="13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="97" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A97" s="13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="98" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A98" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="99" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A99" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="100" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A100" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="101" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A101" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="102" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A102" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="103" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A103" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="104" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A104" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="105" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A105" s="13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="106" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A106" s="13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="107" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A107" s="13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="108" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A108" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="109" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A109" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="110" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A110" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="111" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A111" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="112" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A112" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="113" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A113" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="114" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A114" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="115" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A115" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="116" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A116" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="117" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A117" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="118" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A118" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="119" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A119" s="13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="120" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A120" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="121" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A121" s="13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="122" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A122" s="13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="123" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A123" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="124" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A124" s="13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="125" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A125" s="13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="126" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A126" s="13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="127" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A127" s="13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="128" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A128" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="129" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A129" s="13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="130" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A130" s="13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="131" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A131" s="13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="132" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A132" s="13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="133" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A133" s="13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="134" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A134" s="13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="135" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A135" s="13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="136" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A136" s="13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="137" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A137" s="13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="138" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A138" s="13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="139" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A139" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="140" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A140" s="13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="141" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A141" s="13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="142" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A142" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="143" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A143" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="144" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A144" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="145" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A145" s="13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="146" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A146" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="147" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A147" s="13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="148" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A148" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="149" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A149" s="13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="150" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A150" s="13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="151" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A151" s="13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="152" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A152" s="13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="153" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A153" s="13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="154" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A154" s="9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="155" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A155" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="156" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A156" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B156" s="17" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="157" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A157" s="9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B157" s="18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="158" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A158" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B158" s="18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="159" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A159" s="13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="160" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A160" s="13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="161" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A161" s="13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="162" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A162" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="163" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A163" s="13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="164" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A164" s="13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="165" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A165" s="13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="166" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A166" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="167" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A167" s="13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="168" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A168" s="13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="169" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A169" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="170" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A170" s="13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="171" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A171" s="13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="172" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A172" s="13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="173" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A173" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="174" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A174" s="13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="175" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A175" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="176" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A176" s="13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="177" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A177" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="178" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A178" s="13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="179" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A179" s="13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="180" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A180" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="181" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A181" s="13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="182" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A182" s="13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="183" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A183" s="13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="184" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A184" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="185" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A185" s="9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="186" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A186" s="13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="187" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A187" s="13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="188" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A188" s="13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="189" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A189" s="13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="190" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A190" s="13" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="191" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A191" s="13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="192" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A192" s="13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="193" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A193" s="13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="194" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A194" s="13" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="195" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A195" s="13" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="196" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A196" s="13" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="197" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A197" s="13" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="198" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A198" s="13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="199" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A199" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="200" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A200" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="201" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A201" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="202" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A202" s="13" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="203" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A203" s="9" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B203" s="10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="204" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A204" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="205" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A205" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="206" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A206" s="13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="207" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A207" s="13" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="208" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A208" s="11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B208" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C208" s="19" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="209" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A209" s="13" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="210" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A210" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="211" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A211" s="13" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="212" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A212" s="9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="213" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A213" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B213" s="10" t="s">
         <v>247</v>
-      </c>
-      <c r="B213" s="10" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="214" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A214" s="9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B214" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="215" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A215" s="9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B215" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="216" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A216" s="9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="217" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A217" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="218" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A218" s="9" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C218" s="10" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="219" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A219" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="220" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A220" s="13" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="221" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A221" s="13" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="222" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A222" s="13" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="223" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A223" s="13" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="224" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A224" s="13" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="225" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A225" s="13" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="226" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A226" s="13" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="227" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A227" s="13" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="228" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A228" s="13" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="229" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A229" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="230" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A230" s="13" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="231" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A231" s="13" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="232" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A232" s="13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="233" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A233" s="13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="234" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A234" s="9" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B234" s="10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="235" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A235" s="13" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="236" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A236" s="13" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="237" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A237" s="13" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="238" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A238" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="239" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A239" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="240" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A240" s="13" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="241" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A241" s="13" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="242" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A242" s="13" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="243" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A243" s="13" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="244" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A244" s="13" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="245" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A245" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="246" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A246" s="13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="247" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A247" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="248" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A248" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="249" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A249" s="13" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="250" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A250" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="251" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A251" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="252" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A252" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="253" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A253" s="13" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="254" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A254" s="13" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="255" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A255" s="13" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="256" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A256" s="13" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="257" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A257" s="13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="258" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A258" s="13" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/3.Understand/EE6427-热门考点分析.xlsx
+++ b/3.Understand/EE6427-热门考点分析.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="305">
   <si>
     <t>目录</t>
   </si>
@@ -185,12 +185,15 @@
     <t>2.5.4传统DCT变换</t>
   </si>
   <si>
+    <t>Q1：DCT两步法</t>
+  </si>
+  <si>
+    <t>2.5.5矩阵DCT变换</t>
+  </si>
+  <si>
     <t>Q1：DCT矩阵</t>
   </si>
   <si>
-    <t>2.5.5矩阵DCT变换</t>
-  </si>
-  <si>
     <t>2.6.JPEG标准</t>
   </si>
   <si>
@@ -246,6 +249,9 @@
   </si>
   <si>
     <t>2.6.8.3量化效应</t>
+  </si>
+  <si>
+    <t>Q1：DCT在压缩纹理图像不好</t>
   </si>
   <si>
     <t>2.6.9熵编码</t>
@@ -298,6 +304,9 @@
     <t>3.1.1视频结构</t>
   </si>
   <si>
+    <t>Q3：切片结构</t>
+  </si>
+  <si>
     <t>3.1.2宏模块</t>
   </si>
   <si>
@@ -413,6 +422,9 @@
   </si>
   <si>
     <t>3.2.4.2.1 I帧编码流程图</t>
+  </si>
+  <si>
+    <t>Q3：MPEG编码器的图</t>
   </si>
   <si>
     <t>3.2.4.2.2 p帧编码流程图</t>
@@ -648,6 +660,9 @@
     <t>4.1.5 众所周知的CNN架构</t>
   </si>
   <si>
+    <t>Q2:VGG，LSTM，ViT比较：图像分类</t>
+  </si>
+  <si>
     <t>4.1.6 应用</t>
   </si>
   <si>
@@ -663,9 +678,15 @@
     <t>4.2.2.1原版 RNN(香草RNN）</t>
   </si>
   <si>
+    <t>Q2：RNN计算</t>
+  </si>
+  <si>
     <t>4.2.3 RNN训练与优化</t>
   </si>
   <si>
+    <t>Q2：更改以执行股价预测</t>
+  </si>
+  <si>
     <t>4.2.3.1计算图</t>
   </si>
   <si>
@@ -759,7 +780,7 @@
     <t>4.3.3 ViT</t>
   </si>
   <si>
-    <t>Q2：位置嵌入功能</t>
+    <t>Q2：位置嵌入功能 Q2:VGG，LSTM，ViT比较：图像分类</t>
   </si>
   <si>
     <t>5.视频分析与理解</t>
@@ -777,6 +798,9 @@
     <t>Q3：区分探测器类型</t>
   </si>
   <si>
+    <t>Q3:一级检测器和二级检测器的主要区别</t>
+  </si>
+  <si>
     <t>5.1.2.1二级检测器</t>
   </si>
   <si>
@@ -877,6 +901,9 @@
   </si>
   <si>
     <t>5.4.2 双流网络 Two-Stream Networks</t>
+  </si>
+  <si>
+    <t>Q3:两流网络，图表</t>
   </si>
   <si>
     <t>5.4.3 3D CNNs</t>
@@ -1662,7 +1689,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1721,6 +1748,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2037,16 +2067,16 @@
   <dimension ref="A1:E258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D42" sqref="A41 C41 D42"/>
+      <selection pane="bottomLeft" activeCell="C64" sqref="A64 C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="44" style="6" customWidth="1"/>
     <col min="2" max="2" width="40.9090909090909" style="6" customWidth="1"/>
-    <col min="3" max="3" width="31.2727272727273" style="6" customWidth="1"/>
+    <col min="3" max="3" width="46.1818181818182" style="6" customWidth="1"/>
     <col min="4" max="4" width="42.9090909090909" style="6" customWidth="1"/>
     <col min="5" max="5" width="40.8181818181818" style="6" customWidth="1"/>
     <col min="6" max="16384" width="9" style="6"/>
@@ -2262,1229 +2292,1280 @@
         <v>45</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A37" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A38" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A39" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A40" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A41" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" s="5" customFormat="1" ht="15.5" spans="1:1">
       <c r="A42" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A43" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A44" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A45" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A46" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A47" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B47" s="16"/>
     </row>
     <row r="48" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A48" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A49" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A50" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A51" s="13" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="52" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A52" s="13" t="s">
+    <row r="51" s="4" customFormat="1" ht="15.5" spans="1:3">
+      <c r="A51" s="9" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="53" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A53" s="13" t="s">
+      <c r="C51" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" s="4" customFormat="1" ht="15.5" spans="1:3">
+      <c r="A52" s="9" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="54" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A54" s="13" t="s">
+      <c r="C52" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="55" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A55" s="13" t="s">
+    <row r="53" s="4" customFormat="1" ht="15.5" spans="1:3">
+      <c r="A53" s="9" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="56" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A56" s="13" t="s">
+      <c r="C53" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" s="4" customFormat="1" ht="15.5" spans="1:3">
+      <c r="A54" s="9" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="57" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A57" s="13" t="s">
+      <c r="C54" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" s="4" customFormat="1" ht="15.5" spans="1:3">
+      <c r="A55" s="9" t="s">
         <v>69</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" s="4" customFormat="1" ht="15.5" spans="1:3">
+      <c r="A56" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" s="4" customFormat="1" ht="15.5" spans="1:3">
+      <c r="A57" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="58" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A58" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A59" s="13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A60" s="13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A61" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A62" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A63" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A64" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" s="4" customFormat="1" ht="15.5" spans="1:3">
+      <c r="A64" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="65" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A65" s="13" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" s="5" customFormat="1" ht="15.5" spans="1:3">
       <c r="A66" s="9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" s="5" customFormat="1" ht="15.5" spans="1:1">
       <c r="A67" s="15" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" s="5" customFormat="1" ht="15.5" spans="1:1">
       <c r="A68" s="15" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A69" s="13" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A70" s="9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A71" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A72" s="13" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A73" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A74" s="13" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A75" s="13" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A76" s="9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A77" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A78" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A79" s="13" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A80" s="13" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A81" s="13" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A82" s="13" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="83" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A83" s="9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="84" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A84" s="9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="85" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A85" s="9" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="86" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A86" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B86" s="10" t="s">
         <v>105</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="87" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A87" s="13" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="88" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A88" s="13" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="89" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A89" s="13" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="90" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A90" s="13" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="91" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A91" s="13" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="92" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A92" s="13" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="93" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A93" s="13" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="94" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A94" s="13" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="95" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A95" s="13" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="96" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A96" s="13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="97" s="4" customFormat="1" ht="15.5" spans="1:1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="97" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A97" s="13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="98" s="4" customFormat="1" ht="15.5" spans="1:2">
-      <c r="A98" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B98" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="99" s="4" customFormat="1" ht="15.5" spans="1:1">
+        <v>119</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="98" s="4" customFormat="1" ht="15.5" spans="1:3">
+      <c r="A98" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="99" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A99" s="13" t="s">
-        <v>119</v>
+        <v>123</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="100" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A100" s="13" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="101" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A101" s="13" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="102" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A102" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="103" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A103" s="13" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="104" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A104" s="9" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="105" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A105" s="13" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="106" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A106" s="13" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="107" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A107" s="13" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="108" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A108" s="13" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="109" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A109" s="13" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="110" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A110" s="13" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="111" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A111" s="13" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="112" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A112" s="13" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="113" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A113" s="13" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="114" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A114" s="13" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="115" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A115" s="13" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="116" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A116" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="117" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A117" s="13" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="118" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A118" s="13" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="119" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A119" s="13" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="120" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A120" s="13" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="121" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A121" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="122" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A122" s="13" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="123" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A123" s="13" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="124" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A124" s="13" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="125" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A125" s="13" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="126" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A126" s="13" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="127" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A127" s="13" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="128" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A128" s="13" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="129" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A129" s="13" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="130" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A130" s="13" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="131" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A131" s="13" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="132" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A132" s="13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="133" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A133" s="13" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="134" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A134" s="13" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="135" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A135" s="13" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="136" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A136" s="13" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="137" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A137" s="13" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="138" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A138" s="13" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="139" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A139" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="140" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A140" s="13" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="141" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A141" s="13" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="142" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A142" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="143" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A143" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="144" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A144" s="13" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="145" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A145" s="13" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="146" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A146" s="13" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="147" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A147" s="13" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="148" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A148" s="13" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="149" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A149" s="13" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="150" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A150" s="13" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="151" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A151" s="13" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="152" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A152" s="13" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="153" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A153" s="13" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="154" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A154" s="9" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="155" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A155" s="9" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="156" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A156" s="9" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B156" s="17" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="157" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A157" s="9" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B157" s="18" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="158" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A158" s="9" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B158" s="18" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="159" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A159" s="13" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="160" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A160" s="13" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="161" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A161" s="13" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="162" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A162" s="13" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="163" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A163" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="164" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A164" s="13" t="s">
-        <v>190</v>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="164" s="4" customFormat="1" ht="15.5" spans="1:3">
+      <c r="A164" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C164" s="10" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="165" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A165" s="13" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="166" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A166" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="167" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A167" s="13" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="168" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A168" s="13" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="169" s="4" customFormat="1" ht="15.5" spans="1:2">
-      <c r="A169" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="B169" s="10" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="170" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A170" s="13" t="s">
-        <v>196</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="169" s="4" customFormat="1" ht="15.5" spans="1:3">
+      <c r="A169" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B169" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C169" s="19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="170" s="4" customFormat="1" ht="15.5" spans="1:3">
+      <c r="A170" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C170" s="10" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="171" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A171" s="13" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="172" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A172" s="13" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="173" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A173" s="13" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
     <row r="174" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A174" s="13" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="175" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A175" s="13" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="176" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A176" s="13" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
     </row>
     <row r="177" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A177" s="9" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="178" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A178" s="13" t="s">
-        <v>205</v>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="178" s="4" customFormat="1" ht="15.5" spans="1:3">
+      <c r="A178" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C178" s="10" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="179" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A179" s="13" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="180" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A180" s="7" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="181" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A181" s="13" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="182" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A182" s="13" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
     </row>
     <row r="183" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A183" s="13" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
     </row>
     <row r="184" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A184" s="13" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
     </row>
     <row r="185" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A185" s="9" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="186" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A186" s="13" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="187" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A187" s="13" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="188" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A188" s="13" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="189" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A189" s="13" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
     </row>
     <row r="190" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A190" s="13" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
     <row r="191" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A191" s="13" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="192" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A192" s="13" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="193" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A193" s="13" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="194" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A194" s="13" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="195" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A195" s="13" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="196" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A196" s="13" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
     </row>
     <row r="197" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A197" s="13" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
     <row r="198" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A198" s="13" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="199" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A199" s="9" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
     </row>
     <row r="200" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A200" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
     </row>
     <row r="201" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A201" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
     </row>
     <row r="202" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A202" s="13" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="203" s="4" customFormat="1" ht="15.5" spans="1:2">
-      <c r="A203" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="B203" s="10" t="s">
-        <v>233</v>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="203" s="4" customFormat="1" ht="15.5" spans="1:3">
+      <c r="A203" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B203" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C203" s="19" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="204" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A204" s="9" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="205" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A205" s="9" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="206" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A206" s="13" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="207" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A207" s="13" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="208" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A208" s="11" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B208" s="12" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="C208" s="19" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
     </row>
     <row r="209" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A209" s="13" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="210" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A210" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="211" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A211" s="13" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="212" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A212" s="9" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="213" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A213" s="9" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="214" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A214" s="9" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="B214" s="10" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="215" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A215" s="9" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B215" s="10" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="216" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A216" s="9" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
     </row>
     <row r="217" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A217" s="13" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="218" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A218" s="9" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="C218" s="10" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
     </row>
     <row r="219" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A219" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="220" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A220" s="13" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
     </row>
     <row r="221" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A221" s="13" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="222" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A222" s="13" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="223" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A223" s="13" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
     <row r="224" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A224" s="13" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="225" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A225" s="13" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
     </row>
     <row r="226" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A226" s="13" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="227" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A227" s="13" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="228" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A228" s="13" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
     </row>
     <row r="229" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A229" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="230" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A230" s="13" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="231" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A231" s="13" t="s">
-        <v>267</v>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="231" s="4" customFormat="1" ht="15.5" spans="1:3">
+      <c r="A231" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="C231" s="20" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="232" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A232" s="13" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
     </row>
     <row r="233" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A233" s="13" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
     </row>
     <row r="234" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A234" s="9" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="B234" s="10" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
     </row>
     <row r="235" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A235" s="13" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
     </row>
     <row r="236" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A236" s="13" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
     </row>
     <row r="237" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A237" s="13" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
     </row>
     <row r="238" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A238" s="7" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
     </row>
     <row r="239" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A239" s="7" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
     </row>
     <row r="240" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A240" s="13" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="241" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A241" s="13" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
     </row>
     <row r="242" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A242" s="13" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
     </row>
     <row r="243" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A243" s="13" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
     </row>
     <row r="244" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A244" s="13" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="245" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A245" s="13" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="246" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A246" s="13" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
     </row>
     <row r="247" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A247" s="13" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
     </row>
     <row r="248" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A248" s="13" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
     </row>
     <row r="249" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A249" s="13" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
     </row>
     <row r="250" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A250" s="7" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
     </row>
     <row r="251" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A251" s="13" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
     </row>
     <row r="252" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A252" s="13" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
     </row>
     <row r="253" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A253" s="13" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
     </row>
     <row r="254" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A254" s="13" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
     </row>
     <row r="255" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A255" s="13" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
     </row>
     <row r="256" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A256" s="13" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
     </row>
     <row r="257" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A257" s="13" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
     </row>
     <row r="258" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A258" s="13" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>

--- a/3.Understand/EE6427-热门考点分析.xlsx
+++ b/3.Understand/EE6427-热门考点分析.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="305">
   <si>
     <t>目录</t>
   </si>
@@ -1182,7 +1182,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1215,13 +1215,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1565,7 +1571,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1589,16 +1595,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1607,89 +1613,89 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1741,16 +1747,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2067,9 +2079,9 @@
   <dimension ref="A1:E258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C64" sqref="A64 C64"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="A14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -2165,7 +2177,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" s="3" customFormat="1" ht="15.5" spans="1:3">
+    <row r="14" s="3" customFormat="1" ht="15.5" spans="1:4">
       <c r="A14" s="11" t="s">
         <v>19</v>
       </c>
@@ -2173,6 +2185,9 @@
         <v>20</v>
       </c>
       <c r="C14" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2668,13 +2683,13 @@
       </c>
     </row>
     <row r="98" s="4" customFormat="1" ht="15.5" spans="1:3">
-      <c r="A98" s="11" t="s">
+      <c r="A98" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="B98" s="12" t="s">
+      <c r="B98" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C98" s="12" t="s">
+      <c r="C98" s="18" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2979,7 +2994,7 @@
       <c r="A156" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="B156" s="17" t="s">
+      <c r="B156" s="19" t="s">
         <v>184</v>
       </c>
     </row>
@@ -2987,7 +3002,7 @@
       <c r="A157" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="B157" s="18" t="s">
+      <c r="B157" s="20" t="s">
         <v>186</v>
       </c>
     </row>
@@ -2995,7 +3010,7 @@
       <c r="A158" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="B158" s="18" t="s">
+      <c r="B158" s="20" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3053,13 +3068,13 @@
       </c>
     </row>
     <row r="169" s="4" customFormat="1" ht="15.5" spans="1:3">
-      <c r="A169" s="11" t="s">
+      <c r="A169" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="B169" s="12" t="s">
+      <c r="B169" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="C169" s="19" t="s">
+      <c r="C169" s="21" t="s">
         <v>201</v>
       </c>
     </row>
@@ -3247,13 +3262,13 @@
       </c>
     </row>
     <row r="203" s="4" customFormat="1" ht="15.5" spans="1:3">
-      <c r="A203" s="11" t="s">
+      <c r="A203" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="B203" s="12" t="s">
+      <c r="B203" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="C203" s="19" t="s">
+      <c r="C203" s="21" t="s">
         <v>241</v>
       </c>
     </row>
@@ -3284,13 +3299,13 @@
       </c>
     </row>
     <row r="208" s="4" customFormat="1" ht="15.5" spans="1:3">
-      <c r="A208" s="11" t="s">
+      <c r="A208" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="B208" s="12" t="s">
+      <c r="B208" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="C208" s="19" t="s">
+      <c r="C208" s="21" t="s">
         <v>250</v>
       </c>
     </row>
@@ -3423,10 +3438,10 @@
       </c>
     </row>
     <row r="231" s="4" customFormat="1" ht="15.5" spans="1:3">
-      <c r="A231" s="11" t="s">
+      <c r="A231" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="C231" s="20" t="s">
+      <c r="C231" s="22" t="s">
         <v>276</v>
       </c>
     </row>

--- a/3.Understand/EE6427-热门考点分析.xlsx
+++ b/3.Understand/EE6427-热门考点分析.xlsx
@@ -2081,7 +2081,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="A14:D14"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>

--- a/3.Understand/EE6427-热门考点分析.xlsx
+++ b/3.Understand/EE6427-热门考点分析.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="308">
   <si>
     <t>目录</t>
   </si>
@@ -96,7 +96,18 @@
     <t>Q1：熵</t>
   </si>
   <si>
-    <t>2.2.熵编码</t>
+    <r>
+      <t>2.2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>熵编码</t>
+    </r>
   </si>
   <si>
     <r>
@@ -433,6 +444,9 @@
     <t>Q4：P frame diagram</t>
   </si>
   <si>
+    <t>Q1：i帧中获得运动向量</t>
+  </si>
+  <si>
     <t>3.2.4.2.3 B帧编码流程图</t>
   </si>
   <si>
@@ -463,6 +477,9 @@
     <t>3.2.5.3.2.空间可扩展性</t>
   </si>
   <si>
+    <t>Q2：空间框图</t>
+  </si>
+  <si>
     <t>3.2.5.3.3.时间可伸缩性</t>
   </si>
   <si>
@@ -521,6 +538,9 @@
   </si>
   <si>
     <t>3.3.4.4 整数变换</t>
+  </si>
+  <si>
+    <t>Q1：“A”的二维变换</t>
   </si>
   <si>
     <t>3.3.4.5 内部编码</t>
@@ -1747,16 +1767,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -2079,9 +2099,9 @@
   <dimension ref="A1:E258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="A107" sqref="E107 A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -2682,20 +2702,23 @@
         <v>120</v>
       </c>
     </row>
-    <row r="98" s="4" customFormat="1" ht="15.5" spans="1:3">
-      <c r="A98" s="17" t="s">
+    <row r="98" s="4" customFormat="1" ht="15.5" spans="1:5">
+      <c r="A98" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="B98" s="18" t="s">
+      <c r="B98" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="C98" s="18" t="s">
+      <c r="C98" s="12" t="s">
         <v>120</v>
+      </c>
+      <c r="E98" s="12" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="99" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A99" s="13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C99" s="10" t="s">
         <v>120</v>
@@ -2703,884 +2726,890 @@
     </row>
     <row r="100" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A100" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="101" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A101" s="13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="102" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A102" s="13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="103" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A103" s="13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="104" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A104" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="105" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A105" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="106" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A106" s="13" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="107" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A107" s="13" t="s">
         <v>132</v>
+      </c>
+    </row>
+    <row r="107" s="4" customFormat="1" ht="15.5" spans="1:5">
+      <c r="A107" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E107" s="10" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="108" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A108" s="13" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="109" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A109" s="13" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="110" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A110" s="13" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="111" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A111" s="13" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="112" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A112" s="13" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="113" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A113" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="114" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A114" s="13" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="115" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A115" s="13" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="116" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A116" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="117" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A117" s="13" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="118" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A118" s="13" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="119" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A119" s="13" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="120" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A120" s="13" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="121" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A121" s="13" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="122" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A122" s="13" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="123" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A123" s="13" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="124" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A124" s="13" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="125" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A125" s="13" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="126" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A126" s="13" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="127" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A127" s="13" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="127" s="4" customFormat="1" ht="15.5" spans="1:5">
+      <c r="A127" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E127" s="10" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="128" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A128" s="13" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="129" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A129" s="13" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="130" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A130" s="13" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="131" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A131" s="13" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="132" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A132" s="13" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="133" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A133" s="13" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="134" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A134" s="13" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="135" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A135" s="13" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="136" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A136" s="13" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="137" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A137" s="13" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="138" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A138" s="13" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="139" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A139" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="140" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A140" s="13" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="141" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A141" s="13" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="142" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A142" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="143" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A143" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="144" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A144" s="13" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="145" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A145" s="13" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="146" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A146" s="13" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="147" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A147" s="13" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="148" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A148" s="13" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="149" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A149" s="13" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="150" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A150" s="13" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="151" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A151" s="13" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="152" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A152" s="13" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="153" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A153" s="13" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="154" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A154" s="9" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="155" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A155" s="9" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="156" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A156" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="B156" s="19" t="s">
-        <v>184</v>
+        <v>186</v>
+      </c>
+      <c r="B156" s="17" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="157" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A157" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="B157" s="20" t="s">
-        <v>186</v>
+        <v>188</v>
+      </c>
+      <c r="B157" s="18" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="158" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A158" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="B158" s="20" t="s">
-        <v>188</v>
+        <v>190</v>
+      </c>
+      <c r="B158" s="18" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="159" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A159" s="13" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="160" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A160" s="13" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="161" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A161" s="13" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="162" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A162" s="13" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="163" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A163" s="13" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="164" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A164" s="9" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="165" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A165" s="13" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="166" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A166" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="167" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A167" s="13" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="168" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A168" s="13" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="169" s="4" customFormat="1" ht="15.5" spans="1:3">
-      <c r="A169" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="B169" s="18" t="s">
-        <v>182</v>
+      <c r="A169" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="B169" s="20" t="s">
+        <v>185</v>
       </c>
       <c r="C169" s="21" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="170" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A170" s="9" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="171" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A171" s="13" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="172" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A172" s="13" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="173" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A173" s="13" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="174" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A174" s="13" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="175" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A175" s="13" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="176" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A176" s="13" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="177" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A177" s="9" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="178" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A178" s="9" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="179" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A179" s="13" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="180" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A180" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="181" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A181" s="13" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="182" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A182" s="13" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="183" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A183" s="13" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="184" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A184" s="13" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="185" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A185" s="9" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="186" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A186" s="13" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="187" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A187" s="13" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="188" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A188" s="13" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="189" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A189" s="13" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="190" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A190" s="13" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="191" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A191" s="13" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="192" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A192" s="13" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="193" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A193" s="13" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="194" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A194" s="13" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="195" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A195" s="13" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="196" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A196" s="13" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="197" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A197" s="13" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="198" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A198" s="13" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="199" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A199" s="9" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="200" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A200" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="201" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A201" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="202" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A202" s="13" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="203" s="4" customFormat="1" ht="15.5" spans="1:3">
-      <c r="A203" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="B203" s="18" t="s">
-        <v>240</v>
+      <c r="A203" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="B203" s="20" t="s">
+        <v>243</v>
       </c>
       <c r="C203" s="21" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="204" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A204" s="9" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="205" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A205" s="9" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="206" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A206" s="13" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="207" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A207" s="13" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="208" s="4" customFormat="1" ht="15.5" spans="1:3">
-      <c r="A208" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="B208" s="18" t="s">
-        <v>249</v>
+      <c r="A208" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="B208" s="20" t="s">
+        <v>252</v>
       </c>
       <c r="C208" s="21" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="209" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A209" s="13" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="210" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A210" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="211" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A211" s="13" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="212" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A212" s="9" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="213" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A213" s="9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="214" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A214" s="9" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B214" s="10" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="215" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A215" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B215" s="10" t="s">
         <v>258</v>
-      </c>
-      <c r="B215" s="10" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="216" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A216" s="9" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="217" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A217" s="13" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="218" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A218" s="9" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C218" s="10" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="219" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A219" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="220" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A220" s="13" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="221" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A221" s="13" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="222" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A222" s="13" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="223" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A223" s="13" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="224" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A224" s="13" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="225" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A225" s="13" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="226" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A226" s="13" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="227" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A227" s="13" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="228" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A228" s="13" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="229" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A229" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="230" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A230" s="13" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="231" s="4" customFormat="1" ht="15.5" spans="1:3">
-      <c r="A231" s="17" t="s">
-        <v>275</v>
+      <c r="A231" s="19" t="s">
+        <v>278</v>
       </c>
       <c r="C231" s="22" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="232" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A232" s="13" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="233" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A233" s="13" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="234" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A234" s="9" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B234" s="10" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="235" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A235" s="13" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="236" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A236" s="13" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="237" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A237" s="13" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="238" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A238" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="239" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A239" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="240" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A240" s="13" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="241" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A241" s="13" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="242" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A242" s="13" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="243" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A243" s="13" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="244" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A244" s="13" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="245" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A245" s="13" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="246" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A246" s="13" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="247" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A247" s="13" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="248" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A248" s="13" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="249" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A249" s="13" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="250" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A250" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="251" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A251" s="13" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="252" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A252" s="13" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="253" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A253" s="13" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="254" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A254" s="13" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="255" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A255" s="13" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="256" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A256" s="13" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="257" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A257" s="13" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="258" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A258" s="13" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>

--- a/3.Understand/EE6427-热门考点分析.xlsx
+++ b/3.Understand/EE6427-热门考点分析.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="315">
   <si>
     <t>目录</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>21-S1</t>
+  </si>
+  <si>
+    <t>PPT例子</t>
   </si>
   <si>
     <t>1.介绍与基础</t>
@@ -130,6 +133,9 @@
     <t>Q4：霍夫曼编码</t>
   </si>
   <si>
+    <t xml:space="preserve">Lect2-Excercise-霍夫曼编码 1 &amp; 2  </t>
+  </si>
+  <si>
     <t>2.3.图像和视频压缩</t>
   </si>
   <si>
@@ -199,10 +205,16 @@
     <t>Q1：DCT两步法</t>
   </si>
   <si>
+    <t>Lect2-Excercise-Traditional 2D-DCT</t>
+  </si>
+  <si>
     <t>2.5.5矩阵DCT变换</t>
   </si>
   <si>
     <t>Q1：DCT矩阵</t>
+  </si>
+  <si>
+    <t>Lect2-Excercise-2D-DCT Using Matrix Implementation</t>
   </si>
   <si>
     <t>2.6.JPEG标准</t>
@@ -381,9 +393,15 @@
     <t>3.2.2.1运动估计</t>
   </si>
   <si>
+    <t>Q3：均方误差</t>
+  </si>
+  <si>
     <t>3.2.2.2运动补偿</t>
   </si>
   <si>
+    <t>Q3：最匹配的运动矢量和相应的块</t>
+  </si>
+  <si>
     <t>3.2.2.2.1平均绝对差(MAD)</t>
   </si>
   <si>
@@ -477,7 +495,7 @@
     <t>3.2.5.3.2.空间可扩展性</t>
   </si>
   <si>
-    <t>Q2：空间框图</t>
+    <t>Q2：MPEG-2 空间可变性编码的框图</t>
   </si>
   <si>
     <t>3.2.5.3.3.时间可伸缩性</t>
@@ -544,6 +562,9 @@
   </si>
   <si>
     <t>3.3.4.5 内部编码</t>
+  </si>
+  <si>
+    <t>Q3：类似的半精度运动估计</t>
   </si>
   <si>
     <t>3.3.4.6 循环内去块滤波</t>
@@ -1235,19 +1256,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1715,7 +1736,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1761,28 +1782,31 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2096,25 +2120,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E258"/>
+  <dimension ref="A1:F258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A107" sqref="E107 A107"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="A14:D14 F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="44" style="6" customWidth="1"/>
-    <col min="2" max="2" width="40.9090909090909" style="6" customWidth="1"/>
-    <col min="3" max="3" width="46.1818181818182" style="6" customWidth="1"/>
-    <col min="4" max="4" width="42.9090909090909" style="6" customWidth="1"/>
-    <col min="5" max="5" width="40.8181818181818" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="6"/>
+    <col min="2" max="2" width="29" style="6" customWidth="1"/>
+    <col min="3" max="3" width="33.9090909090909" style="6" customWidth="1"/>
+    <col min="4" max="4" width="32.1818181818182" style="6" customWidth="1"/>
+    <col min="5" max="5" width="31.6363636363636" style="6" customWidth="1"/>
+    <col min="6" max="6" width="26.7272727272727" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2130,1486 +2155,1507 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A3" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A5" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A6" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A7" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A8" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A9" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A10" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" s="3" customFormat="1" ht="15.5" spans="1:2">
       <c r="A11" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1" ht="15.5" spans="1:2">
       <c r="A12" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A13" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" s="3" customFormat="1" ht="15.5" spans="1:4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" s="3" customFormat="1" ht="15.5" spans="1:6">
       <c r="A14" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A15" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A16" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A17" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A18" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A19" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A20" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A21" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A22" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A23" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A24" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A25" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A26" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A27" s="13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A28" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A29" s="13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A30" s="13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A31" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A32" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A33" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A34" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" s="4" customFormat="1" ht="15.5" spans="1:4">
-      <c r="A35" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" s="4" customFormat="1" ht="15.5" spans="1:6">
+      <c r="A35" s="14" t="s">
+        <v>45</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" s="4" customFormat="1" ht="15.5" spans="1:3">
+        <v>46</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" s="4" customFormat="1" ht="15.5" spans="1:6">
       <c r="A36" s="14" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="37" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A37" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A38" s="13" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A39" s="13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A40" s="13" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A41" s="9" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" s="5" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A42" s="15" t="s">
-        <v>53</v>
+      <c r="A42" s="16" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="43" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A43" s="13" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A44" s="13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A45" s="13" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A46" s="9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A47" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47" s="16"/>
+        <v>63</v>
+      </c>
+      <c r="B47" s="17"/>
     </row>
     <row r="48" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A48" s="13" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A49" s="13" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A50" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A51" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A52" s="9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A53" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A54" s="9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A55" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A56" s="9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A57" s="9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A58" s="13" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A59" s="13" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A60" s="13" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A61" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A62" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A63" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A64" s="9" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A65" s="13" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" s="5" customFormat="1" ht="15.5" spans="1:3">
       <c r="A66" s="9" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" s="5" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A67" s="15" t="s">
-        <v>84</v>
+      <c r="A67" s="16" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="68" s="5" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A68" s="15" t="s">
-        <v>85</v>
+      <c r="A68" s="16" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="69" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A69" s="13" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A70" s="9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A71" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A72" s="13" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="73" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A73" s="13" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="74" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A74" s="13" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="75" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A75" s="13" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="76" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A76" s="9" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A77" s="9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A78" s="9" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="79" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A79" s="13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="80" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A80" s="13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="81" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A81" s="13" t="s">
-        <v>102</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="80" s="4" customFormat="1" ht="15.5" spans="1:5">
+      <c r="A80" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="81" s="4" customFormat="1" ht="15.5" spans="1:5">
+      <c r="A81" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="82" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A82" s="13" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="83" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A83" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="84" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A84" s="9" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="85" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A85" s="9" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="86" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A86" s="9" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="87" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A87" s="13" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="88" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A88" s="13" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="89" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A89" s="13" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="90" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A90" s="13" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="91" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A91" s="13" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="92" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A92" s="13" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="93" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A93" s="13" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="94" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A94" s="13" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="95" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A95" s="13" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="96" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A96" s="13" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="97" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A97" s="13" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="98" s="4" customFormat="1" ht="15.5" spans="1:5">
-      <c r="A98" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B98" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C98" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="E98" s="12" t="s">
-        <v>123</v>
+      <c r="A98" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B98" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C98" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E98" s="19" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="99" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A99" s="13" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="100" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A100" s="13" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="101" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A101" s="13" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="102" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A102" s="13" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="103" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A103" s="13" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="104" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A104" s="9" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="105" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A105" s="13" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="106" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A106" s="13" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="107" s="4" customFormat="1" ht="15.5" spans="1:5">
       <c r="A107" s="9" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="108" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A108" s="13" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="109" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A109" s="13" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="110" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A110" s="13" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="111" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A111" s="13" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="112" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A112" s="13" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="113" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A113" s="13" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="114" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A114" s="13" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="115" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A115" s="13" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="116" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A116" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="117" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A117" s="13" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="118" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A118" s="13" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="119" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A119" s="13" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="120" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A120" s="13" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="121" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A121" s="13" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="122" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A122" s="13" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="123" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A123" s="13" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="124" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A124" s="13" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="125" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A125" s="13" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="126" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A126" s="13" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="127" s="4" customFormat="1" ht="15.5" spans="1:5">
       <c r="A127" s="9" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="128" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A128" s="13" t="s">
-        <v>156</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="128" s="4" customFormat="1" ht="15.5" spans="1:5">
+      <c r="A128" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E128" s="10" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="129" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A129" s="13" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="130" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A130" s="13" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="131" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A131" s="13" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="132" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A132" s="13" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="133" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A133" s="13" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
     <row r="134" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A134" s="13" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="135" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A135" s="13" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="136" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A136" s="13" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="137" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A137" s="13" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="138" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A138" s="13" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="139" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A139" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="140" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A140" s="13" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="141" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A141" s="13" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="142" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A142" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="143" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A143" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="144" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A144" s="13" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="145" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A145" s="13" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="146" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A146" s="13" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="147" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A147" s="13" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="148" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A148" s="13" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="149" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A149" s="13" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="150" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A150" s="13" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="151" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A151" s="13" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="152" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A152" s="13" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="153" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A153" s="13" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="154" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A154" s="9" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
     <row r="155" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A155" s="9" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="156" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A156" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="B156" s="17" t="s">
-        <v>187</v>
+        <v>193</v>
+      </c>
+      <c r="B156" s="20" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="157" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A157" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="B157" s="18" t="s">
-        <v>189</v>
+        <v>195</v>
+      </c>
+      <c r="B157" s="21" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="158" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A158" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="B158" s="18" t="s">
-        <v>191</v>
+        <v>197</v>
+      </c>
+      <c r="B158" s="21" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="159" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A159" s="13" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="160" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A160" s="13" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="161" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A161" s="13" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="162" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A162" s="13" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="163" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A163" s="13" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="164" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A164" s="9" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="165" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A165" s="13" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
     <row r="166" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A166" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="167" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A167" s="13" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="168" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A168" s="13" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
     </row>
     <row r="169" s="4" customFormat="1" ht="15.5" spans="1:3">
-      <c r="A169" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="B169" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="C169" s="21" t="s">
-        <v>204</v>
+      <c r="A169" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="B169" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="C169" s="22" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="170" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A170" s="9" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="171" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A171" s="13" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="172" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A172" s="13" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="173" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A173" s="13" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
     </row>
     <row r="174" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A174" s="13" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
     </row>
     <row r="175" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A175" s="13" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
     </row>
     <row r="176" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A176" s="13" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
     </row>
     <row r="177" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A177" s="9" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="178" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A178" s="9" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="179" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A179" s="13" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="180" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A180" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
     </row>
     <row r="181" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A181" s="13" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
     <row r="182" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A182" s="13" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="183" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A183" s="13" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="184" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A184" s="13" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="185" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A185" s="9" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="186" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A186" s="13" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="187" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A187" s="13" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
     <row r="188" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A188" s="13" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="189" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A189" s="13" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
     </row>
     <row r="190" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A190" s="13" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
     </row>
     <row r="191" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A191" s="13" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
     </row>
     <row r="192" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A192" s="13" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
     </row>
     <row r="193" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A193" s="13" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
     </row>
     <row r="194" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A194" s="13" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
     </row>
     <row r="195" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A195" s="13" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
     </row>
     <row r="196" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A196" s="13" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
     </row>
     <row r="197" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A197" s="13" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="198" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A198" s="13" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="199" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A199" s="9" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
     </row>
     <row r="200" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A200" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
     </row>
     <row r="201" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A201" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
     </row>
     <row r="202" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A202" s="13" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
     </row>
     <row r="203" s="4" customFormat="1" ht="15.5" spans="1:3">
-      <c r="A203" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="B203" s="20" t="s">
-        <v>243</v>
-      </c>
-      <c r="C203" s="21" t="s">
-        <v>244</v>
+      <c r="A203" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="B203" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="C203" s="22" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="204" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A204" s="9" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
     </row>
     <row r="205" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A205" s="9" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
     </row>
     <row r="206" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A206" s="13" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
     </row>
     <row r="207" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A207" s="13" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
     </row>
     <row r="208" s="4" customFormat="1" ht="15.5" spans="1:3">
-      <c r="A208" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="B208" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="C208" s="21" t="s">
-        <v>253</v>
+      <c r="A208" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="B208" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="C208" s="22" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="209" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A209" s="13" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
     </row>
     <row r="210" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A210" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
     </row>
     <row r="211" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A211" s="13" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
     </row>
     <row r="212" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A212" s="9" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="213" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A213" s="9" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="214" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A214" s="9" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="B214" s="10" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="215" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A215" s="9" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="B215" s="10" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="216" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A216" s="9" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
     </row>
     <row r="217" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A217" s="13" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
     </row>
     <row r="218" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A218" s="9" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="C218" s="10" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
     </row>
     <row r="219" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A219" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
     </row>
     <row r="220" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A220" s="13" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
     <row r="221" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A221" s="13" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
     </row>
     <row r="222" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A222" s="13" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
     </row>
     <row r="223" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A223" s="13" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
     </row>
     <row r="224" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A224" s="13" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="225" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A225" s="13" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
     </row>
     <row r="226" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A226" s="13" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
     </row>
     <row r="227" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A227" s="13" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
     </row>
     <row r="228" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A228" s="13" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
     </row>
     <row r="229" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A229" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
     </row>
     <row r="230" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A230" s="13" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
     </row>
     <row r="231" s="4" customFormat="1" ht="15.5" spans="1:3">
-      <c r="A231" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="C231" s="22" t="s">
-        <v>279</v>
+      <c r="A231" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="C231" s="23" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="232" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A232" s="13" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
     </row>
     <row r="233" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A233" s="13" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
     </row>
     <row r="234" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A234" s="9" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="B234" s="10" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="235" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A235" s="13" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
     </row>
     <row r="236" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A236" s="13" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
     </row>
     <row r="237" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A237" s="13" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
     </row>
     <row r="238" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A238" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="239" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A239" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="240" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A240" s="13" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="241" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A241" s="13" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
     </row>
     <row r="242" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A242" s="13" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
     </row>
     <row r="243" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A243" s="13" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
     </row>
     <row r="244" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A244" s="13" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
     </row>
     <row r="245" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A245" s="13" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
     </row>
     <row r="246" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A246" s="13" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
     </row>
     <row r="247" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A247" s="13" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
     </row>
     <row r="248" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A248" s="13" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
     <row r="249" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A249" s="13" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
     </row>
     <row r="250" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A250" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
     </row>
     <row r="251" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A251" s="13" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="252" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A252" s="13" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="253" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A253" s="13" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
     </row>
     <row r="254" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A254" s="13" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="255" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A255" s="13" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
     </row>
     <row r="256" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A256" s="13" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
     <row r="257" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A257" s="13" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="258" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A258" s="13" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>

--- a/3.Understand/EE6427-热门考点分析.xlsx
+++ b/3.Understand/EE6427-热门考点分析.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="320">
   <si>
     <t>目录</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t>2.1.2.</t>
     </r>
     <r>
@@ -100,6 +106,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t>2.2.</t>
     </r>
     <r>
@@ -114,6 +126,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t>2.2.1.</t>
     </r>
     <r>
@@ -253,6 +271,9 @@
     <t>Q1：基函数之间的相似和区别</t>
   </si>
   <si>
+    <t>Lect2-Excercise-基函数与量化</t>
+  </si>
+  <si>
     <t>2.6.7.3DCT中基的变化</t>
   </si>
   <si>
@@ -302,6 +323,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t>2.6.12 JPEG</t>
     </r>
     <r>
@@ -318,6 +345,9 @@
     <t>Q1：JPEG解码器流程图</t>
   </si>
   <si>
+    <t>Lect2-Excercise-JPEG解码器</t>
+  </si>
+  <si>
     <t>3.视频压缩和标准</t>
   </si>
   <si>
@@ -354,6 +384,9 @@
     <t>Q4：MPEG-1视频压缩中色度子采样的目的</t>
   </si>
   <si>
+    <t>Lect3-Excercise-MPEG-1</t>
+  </si>
+  <si>
     <t>3.2.MPEG标准</t>
   </si>
   <si>
@@ -552,6 +585,9 @@
     <t>3.3.4.2运动补偿</t>
   </si>
   <si>
+    <t>Lect3-Excercise-H264-运动补偿</t>
+  </si>
+  <si>
     <t>3.3.4.3GOP中的其他选项</t>
   </si>
   <si>
@@ -561,6 +597,9 @@
     <t>Q1：“A”的二维变换</t>
   </si>
   <si>
+    <t>Lect3-Excercise-H264-intro code</t>
+  </si>
+  <si>
     <t>3.3.4.5 内部编码</t>
   </si>
   <si>
@@ -667,6 +706,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">4.1.3.4 </t>
     </r>
     <r>
@@ -1268,13 +1313,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1791,19 +1836,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -2123,9 +2168,9 @@
   <dimension ref="A1:F258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="A14:D14 F14"/>
+      <selection pane="bottomLeft" activeCell="F70" sqref="A70 B70 F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -2135,7 +2180,7 @@
     <col min="3" max="3" width="33.9090909090909" style="6" customWidth="1"/>
     <col min="4" max="4" width="32.1818181818182" style="6" customWidth="1"/>
     <col min="5" max="5" width="31.6363636363636" style="6" customWidth="1"/>
-    <col min="6" max="6" width="26.7272727272727" style="6" customWidth="1"/>
+    <col min="6" max="6" width="38.6363636363636" style="6" customWidth="1"/>
     <col min="7" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -2415,1247 +2460,1268 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" s="4" customFormat="1" ht="15.5" spans="1:3">
-      <c r="A46" s="9" t="s">
+    <row r="46" s="4" customFormat="1" ht="15.5" spans="1:6">
+      <c r="A46" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="15" t="s">
         <v>62</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="47" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A47" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B47" s="17"/>
     </row>
     <row r="48" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A48" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A49" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" s="4" customFormat="1" ht="15.5" spans="1:3">
-      <c r="A50" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C50" s="10" t="s">
+    </row>
+    <row r="50" s="4" customFormat="1" ht="15.5" spans="1:6">
+      <c r="A50" s="14" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="51" s="4" customFormat="1" ht="15.5" spans="1:3">
+      <c r="C50" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" s="4" customFormat="1" ht="15.5" spans="1:4">
       <c r="A51" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C51" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="52" s="4" customFormat="1" ht="15.5" spans="1:3">
+    <row r="52" s="4" customFormat="1" ht="15.5" spans="1:4">
       <c r="A52" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C52" s="10" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="53" s="4" customFormat="1" ht="15.5" spans="1:3">
+      <c r="D52" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" s="4" customFormat="1" ht="15.5" spans="1:4">
       <c r="A53" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C53" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D53" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" s="4" customFormat="1" ht="15.5" spans="1:3">
+    <row r="54" s="4" customFormat="1" ht="15.5" spans="1:4">
       <c r="A54" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C54" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D54" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="55" s="4" customFormat="1" ht="15.5" spans="1:3">
+    <row r="55" s="4" customFormat="1" ht="15.5" spans="1:4">
       <c r="A55" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C55" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D55" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="56" s="4" customFormat="1" ht="15.5" spans="1:3">
+    <row r="56" s="4" customFormat="1" ht="15.5" spans="1:4">
       <c r="A56" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C56" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D56" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="57" s="4" customFormat="1" ht="15.5" spans="1:3">
+    <row r="57" s="4" customFormat="1" ht="15.5" spans="1:4">
       <c r="A57" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C57" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D57" s="10" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="58" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A58" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A59" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A60" s="13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="61" s="4" customFormat="1" ht="15.5" spans="1:2">
-      <c r="A61" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B61" s="10" t="s">
+    </row>
+    <row r="61" s="4" customFormat="1" ht="15.5" spans="1:6">
+      <c r="A61" s="14" t="s">
         <v>80</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="62" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A62" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A63" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A64" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A65" s="13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" s="5" customFormat="1" ht="15.5" spans="1:3">
       <c r="A66" s="9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67" s="5" customFormat="1" ht="15.5" spans="1:1">
       <c r="A67" s="16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" s="5" customFormat="1" ht="15.5" spans="1:1">
       <c r="A68" s="16" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A69" s="13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="70" s="4" customFormat="1" ht="15.5" spans="1:2">
-      <c r="A70" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B70" s="10" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="70" s="4" customFormat="1" ht="15.5" spans="1:6">
+      <c r="A70" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F70" s="18" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="71" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A71" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A72" s="13" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A73" s="13" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A74" s="13" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A75" s="13" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A76" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A77" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="78" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A78" s="9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="79" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A79" s="13" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="80" s="4" customFormat="1" ht="15.5" spans="1:5">
       <c r="A80" s="9" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="81" s="4" customFormat="1" ht="15.5" spans="1:5">
       <c r="A81" s="9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="82" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A82" s="13" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="83" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A83" s="9" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="84" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A84" s="9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="85" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A85" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="86" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A86" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B86" s="10" t="s">
         <v>114</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="87" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A87" s="13" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="88" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A88" s="13" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="89" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A89" s="13" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="90" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A90" s="13" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="91" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A91" s="13" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="92" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A92" s="13" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="93" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A93" s="13" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="94" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A94" s="13" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="95" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A95" s="13" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="96" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A96" s="13" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="97" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A97" s="13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="98" s="4" customFormat="1" ht="15.5" spans="1:5">
-      <c r="A98" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="B98" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="C98" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="E98" s="19" t="s">
+      <c r="A98" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B98" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C98" s="20" t="s">
         <v>129</v>
+      </c>
+      <c r="E98" s="20" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="99" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A99" s="13" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="100" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A100" s="13" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="101" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A101" s="13" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="102" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A102" s="13" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="103" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A103" s="13" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="104" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A104" s="9" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="105" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A105" s="13" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="106" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A106" s="13" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="107" s="4" customFormat="1" ht="15.5" spans="1:5">
       <c r="A107" s="9" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="108" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A108" s="13" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="109" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A109" s="13" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="110" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A110" s="13" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="111" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A111" s="13" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="112" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A112" s="13" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="113" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A113" s="13" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="114" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A114" s="13" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="115" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A115" s="13" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="116" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A116" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="117" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A117" s="13" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="118" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A118" s="13" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="119" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A119" s="13" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="120" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A120" s="13" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="121" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A121" s="13" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="122" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A122" s="13" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="123" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A123" s="13" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="124" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A124" s="13" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="125" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A125" s="13" t="s">
-        <v>158</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="125" s="4" customFormat="1" ht="15.5" spans="1:6">
+      <c r="A125" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="F125" s="10" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="126" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A126" s="13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="127" s="4" customFormat="1" ht="15.5" spans="1:5">
-      <c r="A127" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="E127" s="10" t="s">
-        <v>161</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="127" s="4" customFormat="1" ht="15.5" spans="1:6">
+      <c r="A127" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="E127" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="F127" s="15" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="128" s="4" customFormat="1" ht="15.5" spans="1:5">
       <c r="A128" s="9" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E128" s="10" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="129" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A129" s="13" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="130" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A130" s="13" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="131" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A131" s="13" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="132" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A132" s="13" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="133" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A133" s="13" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="134" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A134" s="13" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="135" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A135" s="13" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="136" s="4" customFormat="1" ht="15.5" spans="1:1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="136" s="4" customFormat="1" ht="15.5" spans="1:6">
       <c r="A136" s="13" t="s">
-        <v>171</v>
+        <v>176</v>
+      </c>
+      <c r="F136" s="10" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="137" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A137" s="13" t="s">
-        <v>172</v>
+      <c r="A137" s="9" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="138" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A138" s="13" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="139" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A139" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="140" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A140" s="13" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="141" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A141" s="13" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="142" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A142" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="143" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A143" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="144" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A144" s="13" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="145" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A145" s="13" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="146" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A146" s="13" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="147" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A147" s="13" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="148" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A148" s="13" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="149" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A149" s="13" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="150" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A150" s="13" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="151" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A151" s="13" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="152" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A152" s="13" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="153" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A153" s="13" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="154" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A154" s="9" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="155" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A155" s="9" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="156" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A156" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="B156" s="20" t="s">
-        <v>194</v>
+        <v>198</v>
+      </c>
+      <c r="B156" s="21" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="157" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A157" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="B157" s="21" t="s">
-        <v>196</v>
+        <v>200</v>
+      </c>
+      <c r="B157" s="22" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="158" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A158" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="B158" s="21" t="s">
-        <v>198</v>
+        <v>202</v>
+      </c>
+      <c r="B158" s="22" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="159" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A159" s="13" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="160" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A160" s="13" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="161" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A161" s="13" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="162" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A162" s="13" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="163" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A163" s="13" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="164" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A164" s="9" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="165" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A165" s="13" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="166" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A166" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="167" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A167" s="13" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="168" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A168" s="13" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="169" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A169" s="14" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="C169" s="22" t="s">
-        <v>211</v>
+        <v>197</v>
+      </c>
+      <c r="C169" s="15" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="170" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A170" s="9" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="171" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A171" s="13" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="172" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A172" s="13" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="173" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A173" s="13" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="174" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A174" s="13" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="175" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A175" s="13" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="176" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A176" s="13" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="177" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A177" s="9" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="178" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A178" s="9" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="179" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A179" s="13" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="180" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A180" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="181" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A181" s="13" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="182" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A182" s="13" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="183" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A183" s="13" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="184" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A184" s="13" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="185" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A185" s="9" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="186" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A186" s="13" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="187" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A187" s="13" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="188" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A188" s="13" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="189" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A189" s="13" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="190" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A190" s="13" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="191" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A191" s="13" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="192" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A192" s="13" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="193" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A193" s="13" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="194" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A194" s="13" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="195" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A195" s="13" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="196" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A196" s="13" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="197" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A197" s="13" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="198" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A198" s="13" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="199" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A199" s="9" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="200" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A200" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="201" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A201" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="202" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A202" s="13" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="203" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A203" s="14" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B203" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="C203" s="22" t="s">
-        <v>251</v>
+        <v>255</v>
+      </c>
+      <c r="C203" s="15" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="204" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A204" s="9" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="205" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A205" s="9" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="206" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A206" s="13" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="207" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A207" s="13" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="208" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A208" s="14" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B208" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="C208" s="22" t="s">
-        <v>260</v>
+        <v>264</v>
+      </c>
+      <c r="C208" s="15" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="209" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A209" s="13" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="210" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A210" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="211" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A211" s="13" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="212" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A212" s="9" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="213" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A213" s="9" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="214" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A214" s="9" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B214" s="10" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="215" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A215" s="9" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B215" s="10" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="216" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A216" s="9" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="217" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A217" s="13" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="218" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A218" s="9" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C218" s="10" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="219" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A219" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="220" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A220" s="13" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="221" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A221" s="13" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="222" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A222" s="13" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="223" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A223" s="13" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="224" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A224" s="13" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="225" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A225" s="13" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="226" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A226" s="13" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="227" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A227" s="13" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="228" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A228" s="13" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="229" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A229" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="230" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A230" s="13" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="231" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A231" s="14" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C231" s="23" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="232" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A232" s="13" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="233" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A233" s="13" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="234" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A234" s="9" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B234" s="10" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="235" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A235" s="13" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="236" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A236" s="13" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="237" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A237" s="13" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="238" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A238" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="239" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A239" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="240" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A240" s="13" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="241" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A241" s="13" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="242" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A242" s="13" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="243" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A243" s="13" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="244" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A244" s="13" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="245" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A245" s="13" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="246" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A246" s="13" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="247" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A247" s="13" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="248" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A248" s="13" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="249" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A249" s="13" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="250" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A250" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="251" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A251" s="13" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="252" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A252" s="13" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="253" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A253" s="13" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="254" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A254" s="13" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="255" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A255" s="13" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="256" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A256" s="13" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="257" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A257" s="13" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="258" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A258" s="13" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>

--- a/3.Understand/EE6427-热门考点分析.xlsx
+++ b/3.Understand/EE6427-热门考点分析.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="327">
   <si>
     <t>目录</t>
   </si>
@@ -301,6 +301,9 @@
     <t>2.6.9熵编码</t>
   </si>
   <si>
+    <t>Lect3-Excercise-MPEG-1</t>
+  </si>
+  <si>
     <t>2.6.9.1锯齿形扫描</t>
   </si>
   <si>
@@ -384,9 +387,6 @@
     <t>Q4：MPEG-1视频压缩中色度子采样的目的</t>
   </si>
   <si>
-    <t>Lect3-Excercise-MPEG-1</t>
-  </si>
-  <si>
     <t>3.2.MPEG标准</t>
   </si>
   <si>
@@ -519,6 +519,9 @@
     <t>Q4：MPEG-2可伸缩性</t>
   </si>
   <si>
+    <t>Lect3-Excercise-MPEG-2</t>
+  </si>
+  <si>
     <t>3.2.5.3.可扩展性的类型</t>
   </si>
   <si>
@@ -597,39 +600,42 @@
     <t>Q1：“A”的二维变换</t>
   </si>
   <si>
+    <t>Lect3-Excercise-H264-intro code &amp; Lect3-H.264 Example of Integer Transform</t>
+  </si>
+  <si>
+    <t>3.3.4.5 内部编码</t>
+  </si>
+  <si>
+    <t>Q3：类似的半精度运动估计</t>
+  </si>
+  <si>
+    <t>3.3.4.6 循环内去块滤波</t>
+  </si>
+  <si>
+    <t>3.3.4.7 上下文自适应二进制算术编码(CABAC)</t>
+  </si>
+  <si>
+    <t>3.3.4.8 比特流结构</t>
+  </si>
+  <si>
+    <t>3.3.4.9 可伸缩视频编码(SVC)</t>
+  </si>
+  <si>
+    <t>3.3.4.10 多视图视频编码(MVC)</t>
+  </si>
+  <si>
+    <t>3.3.5 H.265, H.266</t>
+  </si>
+  <si>
+    <t>3.3.5.1 H.265:介绍</t>
+  </si>
+  <si>
+    <t>3.3.5.2 H.265:对H.264的改进</t>
+  </si>
+  <si>
     <t>Lect3-Excercise-H264-intro code</t>
   </si>
   <si>
-    <t>3.3.4.5 内部编码</t>
-  </si>
-  <si>
-    <t>Q3：类似的半精度运动估计</t>
-  </si>
-  <si>
-    <t>3.3.4.6 循环内去块滤波</t>
-  </si>
-  <si>
-    <t>3.3.4.7 上下文自适应二进制算术编码(CABAC)</t>
-  </si>
-  <si>
-    <t>3.3.4.8 比特流结构</t>
-  </si>
-  <si>
-    <t>3.3.4.9 可伸缩视频编码(SVC)</t>
-  </si>
-  <si>
-    <t>3.3.4.10 多视图视频编码(MVC)</t>
-  </si>
-  <si>
-    <t>3.3.5 H.265, H.266</t>
-  </si>
-  <si>
-    <t>3.3.5.1 H.265:介绍</t>
-  </si>
-  <si>
-    <t>3.3.5.2 H.265:对H.264的改进</t>
-  </si>
-  <si>
     <t>3.3.5.3 H.265:Intra Coding</t>
   </si>
   <si>
@@ -685,6 +691,9 @@
   </si>
   <si>
     <t>Q2：参数个数</t>
+  </si>
+  <si>
+    <t>Lect4-Excercise-CNN</t>
   </si>
   <si>
     <t>4.1.3.1 CNN架构</t>
@@ -731,9 +740,15 @@
     <t>4.1.3.5 全连接层</t>
   </si>
   <si>
+    <t>Lect4-Excercise-CNN-FC-Softmax</t>
+  </si>
+  <si>
     <t>4.1.3.6 概率映射层 Softmax</t>
   </si>
   <si>
+    <t>Lect4-Example-Softmax Loss &amp; Lect4-Excercise-CNN-FC-Softmax</t>
+  </si>
+  <si>
     <t>4.1.4 CNN训练与优化</t>
   </si>
   <si>
@@ -767,6 +782,9 @@
     <t>Q2：RNN计算</t>
   </si>
   <si>
+    <t>Lect4-Excercise-RNN</t>
+  </si>
+  <si>
     <t>4.2.3 RNN训练与优化</t>
   </si>
   <si>
@@ -795,6 +813,9 @@
   </si>
   <si>
     <t>Q2：LSTM计算</t>
+  </si>
+  <si>
+    <t>Lect4-Excercise-LSTM</t>
   </si>
   <si>
     <t>4.2.4.2 RNN 与 LSTM</t>
@@ -1839,16 +1860,16 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -2168,9 +2189,9 @@
   <dimension ref="A1:F258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F70" sqref="A70 B70 F70"/>
+      <selection pane="bottomLeft" activeCell="A169" sqref="F169 C169 B169 A169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -2514,17 +2535,20 @@
         <v>71</v>
       </c>
     </row>
-    <row r="53" s="4" customFormat="1" ht="15.5" spans="1:4">
-      <c r="A53" s="9" t="s">
+    <row r="53" s="4" customFormat="1" ht="15.5" spans="1:6">
+      <c r="A53" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="15" t="s">
         <v>56</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="54" s="4" customFormat="1" ht="15.5" spans="1:4">
       <c r="A54" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D54" s="10" t="s">
         <v>56</v>
@@ -2532,7 +2556,7 @@
     </row>
     <row r="55" s="4" customFormat="1" ht="15.5" spans="1:4">
       <c r="A55" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D55" s="10" t="s">
         <v>56</v>
@@ -2540,7 +2564,7 @@
     </row>
     <row r="56" s="4" customFormat="1" ht="15.5" spans="1:4">
       <c r="A56" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>56</v>
@@ -2548,7 +2572,7 @@
     </row>
     <row r="57" s="4" customFormat="1" ht="15.5" spans="1:4">
       <c r="A57" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>56</v>
@@ -2556,85 +2580,85 @@
     </row>
     <row r="58" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A58" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A59" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A60" s="13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" s="4" customFormat="1" ht="15.5" spans="1:6">
       <c r="A61" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A62" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A63" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A64" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A65" s="13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66" s="5" customFormat="1" ht="15.5" spans="1:3">
       <c r="A66" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" s="5" customFormat="1" ht="15.5" spans="1:1">
       <c r="A67" s="16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68" s="5" customFormat="1" ht="15.5" spans="1:1">
       <c r="A68" s="16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A69" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" s="4" customFormat="1" ht="15.5" spans="1:6">
       <c r="A70" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71" s="2" customFormat="1" ht="15.5" spans="1:1">
@@ -2802,18 +2826,21 @@
         <v>129</v>
       </c>
     </row>
-    <row r="98" s="4" customFormat="1" ht="15.5" spans="1:5">
-      <c r="A98" s="19" t="s">
+    <row r="98" s="4" customFormat="1" ht="15.5" spans="1:6">
+      <c r="A98" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="B98" s="20" t="s">
+      <c r="B98" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="C98" s="20" t="s">
+      <c r="C98" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="E98" s="20" t="s">
+      <c r="E98" s="12" t="s">
         <v>132</v>
+      </c>
+      <c r="F98" s="12" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="99" s="4" customFormat="1" ht="15.5" spans="1:3">
@@ -2844,884 +2871,914 @@
         <v>137</v>
       </c>
     </row>
-    <row r="104" s="4" customFormat="1" ht="15.5" spans="1:2">
-      <c r="A104" s="9" t="s">
+    <row r="104" s="4" customFormat="1" ht="15.5" spans="1:6">
+      <c r="A104" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="B104" s="10" t="s">
+      <c r="B104" s="15" t="s">
         <v>139</v>
+      </c>
+      <c r="F104" s="18" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="105" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A105" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="106" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A106" s="13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="107" s="4" customFormat="1" ht="15.5" spans="1:5">
       <c r="A107" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="108" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A108" s="13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="109" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A109" s="13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="110" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A110" s="13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="111" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A111" s="13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="112" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A112" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="113" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A113" s="13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="114" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A114" s="13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="115" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A115" s="13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="116" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A116" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="117" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A117" s="13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="118" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A118" s="13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="119" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A119" s="13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="120" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A120" s="13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="121" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A121" s="13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="122" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A122" s="13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="123" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A123" s="13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="124" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A124" s="13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="125" s="4" customFormat="1" ht="15.5" spans="1:6">
       <c r="A125" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F125" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="126" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A126" s="13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="127" s="4" customFormat="1" ht="15.5" spans="1:6">
       <c r="A127" s="14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E127" s="15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F127" s="15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="128" s="4" customFormat="1" ht="15.5" spans="1:5">
       <c r="A128" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E128" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="129" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A129" s="13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="130" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A130" s="13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="131" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A131" s="13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="132" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A132" s="13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="133" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A133" s="13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="134" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A134" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="135" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A135" s="13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="136" s="4" customFormat="1" ht="15.5" spans="1:6">
       <c r="A136" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F136" s="10" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="137" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A137" s="9" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="138" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A138" s="13" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="139" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A139" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="140" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A140" s="13" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="141" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A141" s="13" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="142" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A142" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="143" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A143" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="144" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A144" s="13" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="145" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A145" s="13" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="146" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A146" s="13" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="147" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A147" s="13" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="148" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A148" s="13" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="149" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A149" s="13" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="150" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A150" s="13" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="151" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A151" s="13" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="152" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A152" s="13" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="153" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A153" s="13" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="154" s="4" customFormat="1" ht="15.5" spans="1:2">
-      <c r="A154" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="B154" s="10" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="155" s="4" customFormat="1" ht="15.5" spans="1:2">
-      <c r="A155" s="9" t="s">
+    <row r="154" s="4" customFormat="1" ht="15.5" spans="1:6">
+      <c r="A154" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="B155" s="10" t="s">
+      <c r="B154" s="15" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="156" s="4" customFormat="1" ht="15.5" spans="1:2">
-      <c r="A156" s="9" t="s">
+      <c r="F154" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="B156" s="21" t="s">
+    </row>
+    <row r="155" s="4" customFormat="1" ht="15.5" spans="1:6">
+      <c r="A155" s="14" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="157" s="4" customFormat="1" ht="15.5" spans="1:2">
-      <c r="A157" s="9" t="s">
+      <c r="B155" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="B157" s="22" t="s">
+      <c r="F155" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="156" s="4" customFormat="1" ht="15.5" spans="1:6">
+      <c r="A156" s="14" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="158" s="4" customFormat="1" ht="15.5" spans="1:2">
-      <c r="A158" s="9" t="s">
+      <c r="B156" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="B158" s="22" t="s">
+      <c r="F156" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="157" s="4" customFormat="1" ht="15.5" spans="1:6">
+      <c r="A157" s="14" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="159" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A159" s="13" t="s">
+      <c r="B157" s="20" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="160" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A160" s="13" t="s">
+      <c r="F157" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="158" s="4" customFormat="1" ht="15.5" spans="1:6">
+      <c r="A158" s="14" t="s">
         <v>205</v>
+      </c>
+      <c r="B158" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="F158" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="159" s="4" customFormat="1" ht="15.5" spans="1:6">
+      <c r="A159" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="F159" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="160" s="4" customFormat="1" ht="15.5" spans="1:6">
+      <c r="A160" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="F160" s="10" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="161" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A161" s="13" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="162" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A162" s="13" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="163" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A163" s="13" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="164" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A164" s="9" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="165" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A165" s="13" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="166" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A166" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="167" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A167" s="13" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="168" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A168" s="13" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="169" s="4" customFormat="1" ht="15.5" spans="1:3">
-      <c r="A169" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="B169" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="C169" s="15" t="s">
-        <v>216</v>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="169" s="4" customFormat="1" ht="15.5" spans="1:6">
+      <c r="A169" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="B169" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="C169" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="F169" s="22" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="170" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A170" s="9" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="171" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A171" s="13" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="172" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A172" s="13" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="173" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A173" s="13" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="174" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A174" s="13" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="175" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A175" s="13" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="176" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A176" s="13" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="177" s="4" customFormat="1" ht="15.5" spans="1:3">
-      <c r="A177" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="C177" s="10" t="s">
-        <v>226</v>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="177" s="4" customFormat="1" ht="15.5" spans="1:6">
+      <c r="A177" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="C177" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="F177" s="15" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="178" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A178" s="9" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="179" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A179" s="13" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
     </row>
     <row r="180" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A180" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
     </row>
     <row r="181" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A181" s="13" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
     </row>
     <row r="182" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A182" s="13" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
     </row>
     <row r="183" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A183" s="13" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
     </row>
     <row r="184" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A184" s="13" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
     </row>
     <row r="185" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A185" s="9" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="186" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A186" s="13" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="187" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A187" s="13" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
     </row>
     <row r="188" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A188" s="13" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
     </row>
     <row r="189" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A189" s="13" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
     </row>
     <row r="190" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A190" s="13" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
     </row>
     <row r="191" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A191" s="13" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
     </row>
     <row r="192" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A192" s="13" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="193" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A193" s="13" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
     </row>
     <row r="194" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A194" s="13" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
     </row>
     <row r="195" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A195" s="13" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
     </row>
     <row r="196" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A196" s="13" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
     </row>
     <row r="197" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A197" s="13" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
     </row>
     <row r="198" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A198" s="13" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
     </row>
     <row r="199" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A199" s="9" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
     </row>
     <row r="200" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A200" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
     </row>
     <row r="201" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A201" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
     </row>
     <row r="202" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A202" s="13" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
     </row>
     <row r="203" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A203" s="14" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="B203" s="15" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="C203" s="15" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
     </row>
     <row r="204" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A204" s="9" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="205" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A205" s="9" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
     </row>
     <row r="206" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A206" s="13" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
     </row>
     <row r="207" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A207" s="13" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
     </row>
     <row r="208" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A208" s="14" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="B208" s="15" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="C208" s="15" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
     </row>
     <row r="209" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A209" s="13" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
     </row>
     <row r="210" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A210" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
     <row r="211" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A211" s="13" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
     </row>
     <row r="212" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A212" s="9" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
     </row>
     <row r="213" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A213" s="9" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
     </row>
     <row r="214" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A214" s="9" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="B214" s="10" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
     </row>
     <row r="215" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A215" s="9" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="B215" s="10" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
     </row>
     <row r="216" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A216" s="9" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
     </row>
     <row r="217" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A217" s="13" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
     </row>
     <row r="218" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A218" s="9" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C218" s="10" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
     </row>
     <row r="219" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A219" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
     </row>
     <row r="220" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A220" s="13" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
     </row>
     <row r="221" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A221" s="13" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
     </row>
     <row r="222" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A222" s="13" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
     </row>
     <row r="223" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A223" s="13" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
     </row>
     <row r="224" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A224" s="13" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="225" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A225" s="13" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
     </row>
     <row r="226" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A226" s="13" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
     </row>
     <row r="227" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A227" s="13" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
     </row>
     <row r="228" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A228" s="13" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="229" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A229" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="230" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A230" s="13" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="231" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A231" s="14" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="C231" s="23" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
     </row>
     <row r="232" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A232" s="13" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
     </row>
     <row r="233" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A233" s="13" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
     </row>
     <row r="234" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A234" s="9" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="B234" s="10" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
     </row>
     <row r="235" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A235" s="13" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
     </row>
     <row r="236" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A236" s="13" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
     <row r="237" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A237" s="13" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
     </row>
     <row r="238" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A238" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
     </row>
     <row r="239" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A239" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="240" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A240" s="13" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="241" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A241" s="13" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
     </row>
     <row r="242" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A242" s="13" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="243" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A243" s="13" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
     </row>
     <row r="244" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A244" s="13" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
     <row r="245" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A245" s="13" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="246" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A246" s="13" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="247" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A247" s="13" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
     </row>
     <row r="248" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A248" s="13" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="249" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A249" s="13" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
     </row>
     <row r="250" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A250" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
     </row>
     <row r="251" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A251" s="13" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="252" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A252" s="13" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="253" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A253" s="13" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
     </row>
     <row r="254" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A254" s="13" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
     </row>
     <row r="255" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A255" s="13" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
     </row>
     <row r="256" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A256" s="13" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
     </row>
     <row r="257" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A257" s="13" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
     </row>
     <row r="258" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A258" s="13" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>

--- a/3.Understand/EE6427-热门考点分析.xlsx
+++ b/3.Understand/EE6427-热门考点分析.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="330">
   <si>
     <t>目录</t>
   </si>
@@ -914,6 +914,9 @@
     <t>Q3：R-CNN</t>
   </si>
   <si>
+    <t>Lect5-Exercises-Object Detection (RCNN vs YOLO)</t>
+  </si>
+  <si>
     <t>5.1.2.2一级检测器</t>
   </si>
   <si>
@@ -950,6 +953,9 @@
     <t>Q3：MOT关键步骤</t>
   </si>
   <si>
+    <t>Lect5-Exercises-MOT</t>
+  </si>
+  <si>
     <t>5.2.2.1通过检测追踪</t>
   </si>
   <si>
@@ -1019,10 +1025,33 @@
     <t>5.4.4 高效视频建模</t>
   </si>
   <si>
-    <t>5.4.4.1时间偏移模块Temporal Shift Module (TSM)</t>
+    <r>
+      <t>5.4.4.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时间偏移模块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Temporal Shift Module (TSM)</t>
+    </r>
   </si>
   <si>
     <t>Q3：良好的计算效率</t>
+  </si>
+  <si>
+    <t>Lect5-Exercises-Temporal Shift Module (TSM)</t>
   </si>
   <si>
     <t>5.4.5 新兴/新方法</t>
@@ -2189,9 +2218,9 @@
   <dimension ref="A1:F258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A169" sqref="F169 C169 B169 A169"/>
+      <selection pane="bottomLeft" activeCell="A234" sqref="F234 B234 A234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -3470,315 +3499,336 @@
         <v>263</v>
       </c>
     </row>
-    <row r="204" s="4" customFormat="1" ht="15.5" spans="1:2">
-      <c r="A204" s="9" t="s">
+    <row r="204" s="4" customFormat="1" ht="15.5" spans="1:6">
+      <c r="A204" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="B204" s="10" t="s">
+      <c r="B204" s="15" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="205" s="4" customFormat="1" ht="15.5" spans="1:2">
-      <c r="A205" s="9" t="s">
+      <c r="F204" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="B205" s="10" t="s">
+    </row>
+    <row r="205" s="4" customFormat="1" ht="15.5" spans="1:6">
+      <c r="A205" s="14" t="s">
         <v>267</v>
+      </c>
+      <c r="B205" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="F205" s="15" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="206" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A206" s="13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="207" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A207" s="13" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="208" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A208" s="14" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B208" s="15" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C208" s="15" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="209" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A209" s="13" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="210" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A210" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="211" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A211" s="13" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="212" s="4" customFormat="1" ht="15.5" spans="1:2">
-      <c r="A212" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="B212" s="10" t="s">
+    </row>
+    <row r="212" s="4" customFormat="1" ht="15.5" spans="1:6">
+      <c r="A212" s="14" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="213" s="4" customFormat="1" ht="15.5" spans="1:2">
-      <c r="A213" s="9" t="s">
+      <c r="B212" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="B213" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="214" s="4" customFormat="1" ht="15.5" spans="1:2">
-      <c r="A214" s="9" t="s">
+      <c r="F212" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="B214" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="215" s="4" customFormat="1" ht="15.5" spans="1:2">
-      <c r="A215" s="9" t="s">
+    </row>
+    <row r="213" s="4" customFormat="1" ht="15.5" spans="1:6">
+      <c r="A213" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="B215" s="10" t="s">
-        <v>277</v>
+      <c r="B213" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="F213" s="15" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="214" s="4" customFormat="1" ht="15.5" spans="1:6">
+      <c r="A214" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="B214" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="F214" s="15" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="215" s="4" customFormat="1" ht="15.5" spans="1:6">
+      <c r="A215" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="B215" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="F215" s="15" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="216" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A216" s="9" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="217" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A217" s="13" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="218" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A218" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C218" s="10" t="s">
         <v>284</v>
-      </c>
-      <c r="C218" s="10" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="219" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A219" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="220" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A220" s="13" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="221" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A221" s="13" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="222" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A222" s="13" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="223" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A223" s="13" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="224" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A224" s="13" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="225" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A225" s="13" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="226" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A226" s="13" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="227" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A227" s="13" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="228" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A228" s="13" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="229" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A229" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="230" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A230" s="13" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="231" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A231" s="14" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C231" s="23" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="232" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A232" s="13" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="233" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A233" s="13" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="234" s="4" customFormat="1" ht="15.5" spans="1:2">
-      <c r="A234" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="B234" s="10" t="s">
         <v>302</v>
+      </c>
+    </row>
+    <row r="234" s="4" customFormat="1" ht="15.5" spans="1:6">
+      <c r="A234" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="B234" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="F234" s="15" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="235" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A235" s="13" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="236" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A236" s="13" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="237" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A237" s="13" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="238" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A238" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="239" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A239" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="240" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A240" s="13" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="241" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A241" s="13" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="242" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A242" s="13" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="243" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A243" s="13" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="244" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A244" s="13" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="245" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A245" s="13" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="246" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A246" s="13" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="247" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A247" s="13" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="248" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A248" s="13" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="249" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A249" s="13" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="250" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A250" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="251" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A251" s="13" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="252" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A252" s="13" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="253" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A253" s="13" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="254" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A254" s="13" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="255" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A255" s="13" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="256" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A256" s="13" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="257" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A257" s="13" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="258" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A258" s="13" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>

--- a/3.Understand/EE6427-热门考点分析.xlsx
+++ b/3.Understand/EE6427-热门考点分析.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="329">
   <si>
     <t>目录</t>
   </si>
@@ -585,7 +585,18 @@
     <t>3.3.4.1 H264编码器</t>
   </si>
   <si>
-    <t>3.3.4.2运动补偿</t>
+    <r>
+      <t>3.3.4.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运动补偿</t>
+    </r>
   </si>
   <si>
     <t>Lect3-Excercise-H264-运动补偿</t>
@@ -631,9 +642,6 @@
   </si>
   <si>
     <t>3.3.5.2 H.265:对H.264的改进</t>
-  </si>
-  <si>
-    <t>Lect3-Excercise-H264-intro code</t>
   </si>
   <si>
     <t>3.3.5.3 H.265:Intra Coding</t>
@@ -1831,7 +1839,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1887,6 +1895,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2218,9 +2232,9 @@
   <dimension ref="A1:F258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A234" sqref="F234 B234 A234"/>
+      <selection pane="bottomLeft" activeCell="A128" sqref="A128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -3085,750 +3099,748 @@
       <c r="A136" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="F136" s="10" t="s">
+      <c r="F136" s="19"/>
+    </row>
+    <row r="137" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A137" s="20" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="137" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A137" s="9" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="138" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A138" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="139" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A139" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="140" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A140" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="141" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A141" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="142" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A142" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="143" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A143" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="144" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A144" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="145" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A145" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="146" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A146" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="147" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A147" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="148" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A148" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="149" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A149" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="150" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A150" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="151" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A151" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="152" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A152" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="153" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A153" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="154" s="4" customFormat="1" ht="15.5" spans="1:6">
       <c r="A154" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B154" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="B154" s="15" t="s">
+      <c r="F154" s="15" t="s">
         <v>197</v>
-      </c>
-      <c r="F154" s="15" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="155" s="4" customFormat="1" ht="15.5" spans="1:6">
       <c r="A155" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="B155" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="B155" s="15" t="s">
-        <v>200</v>
-      </c>
       <c r="F155" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="156" s="4" customFormat="1" ht="15.5" spans="1:6">
       <c r="A156" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="B156" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="B156" s="19" t="s">
-        <v>202</v>
-      </c>
       <c r="F156" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="157" s="4" customFormat="1" ht="15.5" spans="1:6">
       <c r="A157" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="B157" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="B157" s="20" t="s">
-        <v>204</v>
-      </c>
       <c r="F157" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="158" s="4" customFormat="1" ht="15.5" spans="1:6">
       <c r="A158" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="B158" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="B158" s="20" t="s">
-        <v>206</v>
-      </c>
       <c r="F158" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="159" s="4" customFormat="1" ht="15.5" spans="1:6">
       <c r="A159" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="F159" s="10" t="s">
         <v>207</v>
-      </c>
-      <c r="F159" s="10" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="160" s="4" customFormat="1" ht="15.5" spans="1:6">
       <c r="A160" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F160" s="10" t="s">
         <v>209</v>
-      </c>
-      <c r="F160" s="10" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="161" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A161" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="162" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A162" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="163" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A163" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="164" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A164" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C164" s="10" t="s">
         <v>214</v>
-      </c>
-      <c r="C164" s="10" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="165" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A165" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="166" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A166" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="167" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A167" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="168" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A168" s="13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="169" s="4" customFormat="1" ht="15.5" spans="1:6">
+      <c r="A169" s="23" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="169" s="4" customFormat="1" ht="15.5" spans="1:6">
-      <c r="A169" s="21" t="s">
+      <c r="B169" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="C169" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="B169" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="C169" s="22" t="s">
+      <c r="F169" s="24" t="s">
         <v>221</v>
-      </c>
-      <c r="F169" s="22" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="170" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A170" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C170" s="10" t="s">
         <v>223</v>
-      </c>
-      <c r="C170" s="10" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="171" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A171" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="172" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A172" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="173" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A173" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="174" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A174" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="175" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A175" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="176" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A176" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="177" s="4" customFormat="1" ht="15.5" spans="1:6">
       <c r="A177" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="C177" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="C177" s="15" t="s">
+      <c r="F177" s="15" t="s">
         <v>232</v>
-      </c>
-      <c r="F177" s="15" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="178" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A178" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="179" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A179" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="180" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A180" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="181" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A181" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="182" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A182" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="183" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A183" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="184" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A184" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="185" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A185" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="186" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A186" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="187" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A187" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C187" s="10" t="s">
         <v>243</v>
-      </c>
-      <c r="C187" s="10" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="188" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A188" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="189" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A189" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="190" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A190" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="191" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A191" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="192" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A192" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="193" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A193" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="194" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A194" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="195" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A195" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="196" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A196" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="197" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A197" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="198" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A198" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="199" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A199" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C199" s="10" t="s">
         <v>256</v>
-      </c>
-      <c r="C199" s="10" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="200" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A200" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="201" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A201" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="202" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A202" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="203" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A203" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="B203" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="B203" s="15" t="s">
+      <c r="C203" s="15" t="s">
         <v>262</v>
-      </c>
-      <c r="C203" s="15" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="204" s="4" customFormat="1" ht="15.5" spans="1:6">
       <c r="A204" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="B204" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="B204" s="15" t="s">
+      <c r="F204" s="15" t="s">
         <v>265</v>
-      </c>
-      <c r="F204" s="15" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="205" s="4" customFormat="1" ht="15.5" spans="1:6">
       <c r="A205" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="B205" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="B205" s="15" t="s">
-        <v>268</v>
-      </c>
       <c r="F205" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="206" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A206" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="207" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A207" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="208" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A208" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="B208" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="B208" s="15" t="s">
+      <c r="C208" s="15" t="s">
         <v>272</v>
-      </c>
-      <c r="C208" s="15" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="209" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A209" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="210" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A210" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="211" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A211" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="212" s="4" customFormat="1" ht="15.5" spans="1:6">
       <c r="A212" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="B212" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="B212" s="15" t="s">
+      <c r="F212" s="15" t="s">
         <v>278</v>
-      </c>
-      <c r="F212" s="15" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="213" s="4" customFormat="1" ht="15.5" spans="1:6">
       <c r="A213" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B213" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="F213" s="15" t="s">
         <v>278</v>
-      </c>
-      <c r="F213" s="15" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="214" s="4" customFormat="1" ht="15.5" spans="1:6">
       <c r="A214" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B214" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="F214" s="15" t="s">
         <v>278</v>
-      </c>
-      <c r="F214" s="15" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="215" s="4" customFormat="1" ht="15.5" spans="1:6">
       <c r="A215" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B215" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="F215" s="15" t="s">
         <v>278</v>
-      </c>
-      <c r="F215" s="15" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="216" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A216" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="C216" s="10" t="s">
         <v>283</v>
-      </c>
-      <c r="C216" s="10" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="217" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A217" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="218" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A218" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C218" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="219" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A219" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="220" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A220" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="221" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A221" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="222" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A222" s="13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="223" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A223" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="224" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A224" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="225" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A225" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="226" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A226" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="227" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A227" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="228" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A228" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="229" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A229" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="230" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A230" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="231" s="4" customFormat="1" ht="15.5" spans="1:3">
       <c r="A231" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="C231" s="25" t="s">
         <v>299</v>
-      </c>
-      <c r="C231" s="23" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="232" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A232" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="233" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A233" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="234" s="4" customFormat="1" ht="15.5" spans="1:6">
       <c r="A234" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="B234" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="B234" s="15" t="s">
+      <c r="F234" s="15" t="s">
         <v>304</v>
-      </c>
-      <c r="F234" s="15" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="235" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A235" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="236" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A236" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="237" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A237" s="13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="238" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A238" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="239" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A239" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="240" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A240" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="241" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A241" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="242" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A242" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="243" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A243" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="244" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A244" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="245" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A245" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="246" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A246" s="13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="247" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A247" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="248" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A248" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="249" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A249" s="13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="250" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A250" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="251" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A251" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="252" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A252" s="13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="253" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A253" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="254" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A254" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="255" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A255" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="256" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A256" s="13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="257" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A257" s="13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="258" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A258" s="13" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>

--- a/3.Understand/EE6427-热门考点分析.xlsx
+++ b/3.Understand/EE6427-热门考点分析.xlsx
@@ -2232,9 +2232,9 @@
   <dimension ref="A1:F258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A128" sqref="A128"/>
+      <selection pane="bottomLeft" activeCell="B208" sqref="B208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
